--- a/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
@@ -449,12 +449,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -599,76 +606,76 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -681,7 +688,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +798,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -852,7 +862,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,7 +926,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +990,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,7 +1054,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1118,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1172,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1236,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1300,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1364,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1428,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1492,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1880,7 @@
       <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="32" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2803,7 +2813,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="186">
   <si>
     <t>Variable</t>
   </si>
@@ -443,6 +443,185 @@
   </si>
   <si>
     <t>SME_RETAIL_EXPOSURE_REAL</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_14</t>
+  </si>
+  <si>
+    <t>IND_14</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_19</t>
+  </si>
+  <si>
+    <t>IND_19</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_20</t>
+  </si>
+  <si>
+    <t>IND_20</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_31</t>
+  </si>
+  <si>
+    <t>IND_31</t>
+  </si>
+  <si>
+    <t>Indicatore 14 - Avvio di una procedura concorsuale per il debitore</t>
+  </si>
+  <si>
+    <t>Avvio di una procedura concorsuale per il debitore, nel caso di valorizzazione di uno degli eventi pregiuzievoli:Amministrazione straordinaria, Concordato preventivo, Fallimento, Liquidazione coatta amministrativa</t>
+  </si>
+  <si>
+    <t>Indicatore 19 - Richiesta ammissione ad una procedura concorsuale per il debitore</t>
+  </si>
+  <si>
+    <t>Indicatore 20 - Deposito/Pubblicazione di accordo ristrutturazione per liquidazione</t>
+  </si>
+  <si>
+    <t>Notizia di richiesta ammissione ad una procedura concorsuale per il debitore</t>
+  </si>
+  <si>
+    <t>Deposito/Pubblicazione di accordo ristrutturazione con intento liquidatorio ai sensi dell'art. 182/bis</t>
+  </si>
+  <si>
+    <t>Indicatore 31 - Covenant non rispettato e non sanato</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore 1, se si verifica la presenza di un covenant non rispettato e non sanato</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_1</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_3</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_4</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_5</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_9</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_21</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_30</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_36</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_23</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_100</t>
+  </si>
+  <si>
+    <t>IND_01</t>
+  </si>
+  <si>
+    <t>IND_03</t>
+  </si>
+  <si>
+    <t>IND_04</t>
+  </si>
+  <si>
+    <t>IND_05</t>
+  </si>
+  <si>
+    <t>IND_09</t>
+  </si>
+  <si>
+    <t>IND_21</t>
+  </si>
+  <si>
+    <t>IND_30</t>
+  </si>
+  <si>
+    <t>IND_36</t>
+  </si>
+  <si>
+    <t>IND_100</t>
+  </si>
+  <si>
+    <t>Indicatore 1 - Counterparty rating</t>
+  </si>
+  <si>
+    <t>Indicatore 3 - Delta Equity</t>
+  </si>
+  <si>
+    <t>Indicatore 4 - Delta Turnover</t>
+  </si>
+  <si>
+    <t>Indicatore 5 - Debt Service Coverage Ratio</t>
+  </si>
+  <si>
+    <t>Indicatore 9 - Sconfino</t>
+  </si>
+  <si>
+    <t>L’indicatore si calcola considerando l’ultimo rating valido per la controparte in oggetto delle valutazioni.
+Per ogni singolo SNDG viene quindi riportato il “Rating” assunto nell’ultimo Time Stamp disponibile, secondo una scala interna (MASTER SCALE).</t>
+  </si>
+  <si>
+    <t>L'indicatore "Delta Equity" si calcola tramite la variazione percentuale del patrimonio netto nel corso del periodo in esame ( [T2 ; T1] ), ovvero si considera il rapporto dei seguenti due termini:
+Numeratore: (Patrimonio_Netto_T1 - Patrimonio_Netto_T2)
+Denominatore: Patrimonio_Netto_T2</t>
+  </si>
+  <si>
+    <t>Per la controparte oggetto delle valutazioni, l'indicatore "Delta Turnover" si calcola tramite la variazione percentuale del fatturato nel corso del periodo in esame  ( [T2 ; T1] ), ovvero si considera il rapporto dei seguenti due termini: 
+Numeratore: MAX(fatturato T1, valore della produzione T1) - MAX(fatturato T2, valore della produzione T2)
+Denominatore: MAX(fatturato T2, valore della produzione T2)</t>
+  </si>
+  <si>
+    <t>Per la controparte oggetto delle valutazioni, l'indicatore "Debt Service Coverage Ratio" si calcola considerando il current debt service coverage ratio come rapporto dei seguenti due termini:
+Numeratore: (Utile o perdita +Ammortamenti+Accantonamenti + Oneri finanziari)
+Denominatore:  (Debiti finanziari a BT + (Debiti finanziari MLT / 3.5) - Liquidità + Oneri finanziari)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore deve essere valutato a livello di controparte considerando l'importo dello sconfino da acquisirsi giornalmente da procedura XRA.
+Il valore di sconfino da considerare è il numero di giorni consecutivi di Sconfino superiore a soglia. </t>
+  </si>
+  <si>
+    <t>Indicatore 21 - Inadempimento rispetto a pagamenti su titoli di debito quotati</t>
+  </si>
+  <si>
+    <t>Inadempimento rispetto agli obblighi di puntuale ed integrale pagamento relativamente ai titoli di debito quotati</t>
+  </si>
+  <si>
+    <t>Indicatore 30 - Bond Trade Suspended</t>
+  </si>
+  <si>
+    <t>Indicazione della sospensione di un bond trade per difficoltà finanziarie</t>
+  </si>
+  <si>
+    <t>Indicatore 36 - Avvio procedura concorsuale con soglie</t>
+  </si>
+  <si>
+    <t>L'obiettivo dell'indicatore è propagare verticalmente il segnale di rischiosità sulle società controllate nel caso venga aperta una procedura concorsuale (accensione colore blu scuro) sulla capogruppo/subcapogruppo fallita. Per il singolo SNDG viene riportato la percentuale di esposizione della controparte fallita sul gruppo. In particolare viene fatto il rapporto tra:
+Bilancio netto aziendale controparte fallita su bilancio consolidato se presente
+Bilancio netto aziendale controparte fallita su bilancio della capogruppo della controparte fallita
+Oppure viene riportato il MOL relativo al bilancio consolidato della controparte fallita</t>
+  </si>
+  <si>
+    <t>Indicatore 100 - Semaforo notizie Pregiudizievoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In presenza di almeno una notizia pregiudizievole, l'indicatore restituisce un codice di colore in funzione della gravità della stessa. </t>
+  </si>
+  <si>
+    <t>IND_23</t>
+  </si>
+  <si>
+    <t>Indicatore 23 - Rating</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -608,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,6 +870,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,10 +970,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>41312</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>721669</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -852,10 +1034,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>41312</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>721669</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -916,10 +1098,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>41312</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>721669</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -980,10 +1162,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>41312</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>721669</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1044,10 +1226,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>41312</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>721669</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1789,17 +1971,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="24" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="66.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.5703125" customWidth="1"/>
@@ -2053,23 +2235,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
+        <v>146</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="G7" s="12">
         <v>204</v>
@@ -2097,23 +2279,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="12">
         <v>205</v>
@@ -2141,23 +2323,23 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
+        <v>147</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
+        <v>171</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="G9" s="12">
         <v>206</v>
@@ -2169,39 +2351,39 @@
         <v>0</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="17" t="b">
+        <v>46</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
+        <v>148</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="G10" s="12">
         <v>207</v>
@@ -2213,39 +2395,39 @@
         <v>0</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="17" t="b">
+        <v>46</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
+        <v>149</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="G11" s="12">
         <v>208</v>
@@ -2257,97 +2439,97 @@
         <v>0</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="17" t="b">
+        <v>46</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>56</v>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="12">
         <v>209</v>
       </c>
-      <c r="H12" s="26" t="b">
+      <c r="H12" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="30" t="b">
+      <c r="J12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="16" t="b">
         <v>0</v>
       </c>
       <c r="M12" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N12" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>57</v>
+      <c r="N12" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
       </c>
       <c r="G13" s="12">
         <v>210</v>
       </c>
-      <c r="H13" s="26" t="b">
+      <c r="H13" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="26" t="b">
+      <c r="K13" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="16" t="b">
@@ -2356,207 +2538,207 @@
       <c r="M13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N13" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>58</v>
+      <c r="N13" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
       </c>
       <c r="G14" s="12">
+        <v>211</v>
+      </c>
+      <c r="H14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="12">
         <v>212</v>
       </c>
-      <c r="H14" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="H15" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="26" t="b">
+      <c r="K15" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="L15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="12">
+        <v>213</v>
+      </c>
+      <c r="H16" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="12">
         <v>214</v>
       </c>
-      <c r="H15" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="26" t="b">
+      <c r="H17" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="12">
+    </row>
+    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="12">
         <v>215</v>
-      </c>
-      <c r="H16" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="12">
-        <v>218</v>
-      </c>
-      <c r="H17" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="12">
-        <v>219</v>
       </c>
       <c r="H18" s="26" t="b">
         <v>0</v>
@@ -2580,27 +2762,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:14" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>92</v>
+        <v>130</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>139</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="G19" s="12">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H19" s="26" t="b">
         <v>0</v>
@@ -2625,26 +2807,26 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G20" s="12">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H20" s="26" t="b">
         <v>0</v>
@@ -2664,31 +2846,31 @@
       <c r="M20" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N20" s="18" t="b">
+      <c r="N20" s="30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G21" s="12">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H21" s="26" t="b">
         <v>0</v>
@@ -2697,42 +2879,42 @@
         <v>0</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="30" t="b">
+        <v>45</v>
+      </c>
+      <c r="K21" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="16" t="b">
         <v>0</v>
       </c>
       <c r="M21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N21" s="18" t="b">
+      <c r="N21" s="30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G22" s="12">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H22" s="26" t="b">
         <v>0</v>
@@ -2752,31 +2934,31 @@
       <c r="M22" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N22" s="18" t="b">
+      <c r="N22" s="30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="G23" s="12">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H23" s="26" t="b">
         <v>0</v>
@@ -2796,7 +2978,623 @@
       <c r="M23" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N23" s="18" t="b">
+      <c r="N23" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="12">
+        <v>221</v>
+      </c>
+      <c r="H24" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="12">
+        <v>222</v>
+      </c>
+      <c r="H25" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="12">
+        <v>223</v>
+      </c>
+      <c r="H26" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="12">
+        <v>224</v>
+      </c>
+      <c r="H27" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="12">
+        <v>225</v>
+      </c>
+      <c r="H28" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="12">
+        <v>226</v>
+      </c>
+      <c r="H29" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="12">
+        <v>227</v>
+      </c>
+      <c r="H30" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="12">
+        <v>228</v>
+      </c>
+      <c r="H31" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="12">
+        <v>229</v>
+      </c>
+      <c r="H32" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="12">
+        <v>230</v>
+      </c>
+      <c r="H33" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="12">
+        <v>231</v>
+      </c>
+      <c r="H34" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="12">
+        <v>232</v>
+      </c>
+      <c r="H35" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="12">
+        <v>233</v>
+      </c>
+      <c r="H36" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="12">
+        <v>234</v>
+      </c>
+      <c r="H37" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2809,11 +3607,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,13 +3727,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>23</v>
@@ -2946,13 +3744,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>23</v>
@@ -2963,16 +3761,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2980,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2997,16 +3795,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,16 +3812,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3031,13 +3829,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>23</v>
@@ -3048,16 +3846,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>116</v>
+        <v>150</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3065,13 +3863,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>23</v>
@@ -3082,13 +3880,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>23</v>
@@ -3099,16 +3897,16 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3116,13 +3914,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>23</v>
@@ -3133,13 +3931,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>23</v>
@@ -3150,13 +3948,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>23</v>
@@ -3167,16 +3965,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,13 +3982,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>23</v>
@@ -3201,15 +3999,253 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
         <v>125</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C35" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E35" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F35" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="186">
   <si>
     <t>Variable</t>
   </si>
@@ -603,12 +603,6 @@
     <t>Indicatore 36 - Avvio procedura concorsuale con soglie</t>
   </si>
   <si>
-    <t>L'obiettivo dell'indicatore è propagare verticalmente il segnale di rischiosità sulle società controllate nel caso venga aperta una procedura concorsuale (accensione colore blu scuro) sulla capogruppo/subcapogruppo fallita. Per il singolo SNDG viene riportato la percentuale di esposizione della controparte fallita sul gruppo. In particolare viene fatto il rapporto tra:
-Bilancio netto aziendale controparte fallita su bilancio consolidato se presente
-Bilancio netto aziendale controparte fallita su bilancio della capogruppo della controparte fallita
-Oppure viene riportato il MOL relativo al bilancio consolidato della controparte fallita</t>
-  </si>
-  <si>
     <t>Indicatore 100 - Semaforo notizie Pregiudizievoli</t>
   </si>
   <si>
@@ -622,6 +616,9 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>L'obiettivo dell'indicatore è propagare verticalmente il segnale di rischiosità sulle società controllate nel caso venga aperta una procedura concorsuale (accensione colore blu scuro) sulla capogruppo/subcapogruppo fallita. Per il singolo SNDG viene riportato la percentuale di esposizione della controparte fallita sul gruppo.</t>
   </si>
 </sst>
 </file>
@@ -787,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -830,9 +827,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,9 +848,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -864,15 +855,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -972,7 +966,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>721669</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1036,7 +1030,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>721669</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1100,7 +1094,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>721669</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1164,7 +1158,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>721669</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1228,7 +1222,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>721669</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>189524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1971,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1990,7 @@
     <col min="15" max="1017" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2014,55 +2008,55 @@
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2101,12 +2095,16 @@
       <c r="N3" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>LEN(D3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2145,12 +2143,16 @@
       <c r="N4" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" ref="O4:O37" si="0">LEN(D4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2189,9 +2191,13 @@
       <c r="N5" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -2233,9 +2239,13 @@
       <c r="N6" s="13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2244,10 +2254,10 @@
       <c r="C7" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>156</v>
       </c>
       <c r="F7" t="s">
@@ -2277,9 +2287,13 @@
       <c r="N7" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2291,7 +2305,7 @@
       <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>97</v>
       </c>
       <c r="F8" t="s">
@@ -2321,9 +2335,13 @@
       <c r="N8" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2332,10 +2350,10 @@
       <c r="C9" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>157</v>
       </c>
       <c r="F9" t="s">
@@ -2344,30 +2362,34 @@
       <c r="G9" s="12">
         <v>206</v>
       </c>
-      <c r="H9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="H9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="K9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -2379,7 +2401,7 @@
       <c r="D10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>158</v>
       </c>
       <c r="F10" t="s">
@@ -2388,30 +2410,34 @@
       <c r="G10" s="12">
         <v>207</v>
       </c>
-      <c r="H10" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="H10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="K10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2423,7 +2449,7 @@
       <c r="D11" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>159</v>
       </c>
       <c r="F11" t="s">
@@ -2432,30 +2458,34 @@
       <c r="G11" s="12">
         <v>208</v>
       </c>
-      <c r="H11" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="H11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="K11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2497,9 +2527,13 @@
       <c r="N12" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2541,9 +2575,13 @@
       <c r="N13" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2564,30 +2602,34 @@
       <c r="G14" s="12">
         <v>211</v>
       </c>
-      <c r="H14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17" t="s">
+      <c r="H14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="K14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2629,9 +2671,13 @@
       <c r="N15" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2673,83 +2719,91 @@
       <c r="N16" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="27" t="s">
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="12">
         <v>214</v>
       </c>
-      <c r="H17" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="26" t="s">
+      <c r="H17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="K17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="12">
         <v>215</v>
       </c>
-      <c r="H18" s="26" t="b">
+      <c r="H18" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="26" t="b">
+      <c r="K18" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L18" s="16" t="b">
@@ -2758,42 +2812,46 @@
       <c r="M18" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N18" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="27" t="s">
+      <c r="N18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="26" t="s">
         <v>138</v>
       </c>
       <c r="G19" s="12">
         <v>216</v>
       </c>
-      <c r="H19" s="26" t="b">
+      <c r="H19" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="26" t="b">
+      <c r="K19" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L19" s="16" t="b">
@@ -2802,42 +2860,46 @@
       <c r="M19" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N19" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="27" t="s">
+      <c r="N19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="12">
         <v>217</v>
       </c>
-      <c r="H20" s="26" t="b">
+      <c r="H20" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="26" t="b">
+      <c r="K20" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="16" t="b">
@@ -2846,42 +2908,46 @@
       <c r="M20" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N20" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="27" t="s">
+      <c r="N20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="12">
         <v>218</v>
       </c>
-      <c r="H21" s="26" t="b">
+      <c r="H21" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I21" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="26" t="b">
+      <c r="K21" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L21" s="16" t="b">
@@ -2890,42 +2956,46 @@
       <c r="M21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N21" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="27" t="s">
+      <c r="N21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="26" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="12">
         <v>219</v>
       </c>
-      <c r="H22" s="26" t="b">
+      <c r="H22" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="26" t="b">
+      <c r="K22" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L22" s="16" t="b">
@@ -2934,42 +3004,46 @@
       <c r="M22" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N22" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="27" t="s">
+      <c r="N22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="26" t="s">
         <v>140</v>
       </c>
       <c r="G23" s="12">
         <v>220</v>
       </c>
-      <c r="H23" s="26" t="b">
+      <c r="H23" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="26" t="b">
+      <c r="K23" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="16" t="b">
@@ -2978,42 +3052,46 @@
       <c r="M23" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N23" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="27" t="s">
+      <c r="N23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G24" s="12">
         <v>221</v>
       </c>
-      <c r="H24" s="26" t="b">
+      <c r="H24" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I24" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="26" t="b">
+      <c r="K24" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L24" s="16" t="b">
@@ -3022,42 +3100,46 @@
       <c r="M24" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N24" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="27" t="s">
+      <c r="N24" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="26" t="s">
         <v>175</v>
       </c>
       <c r="G25" s="12">
         <v>222</v>
       </c>
-      <c r="H25" s="26" t="b">
+      <c r="H25" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I25" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="26" t="b">
+      <c r="K25" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L25" s="16" t="b">
@@ -3066,42 +3148,46 @@
       <c r="M25" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="27" t="s">
+      <c r="N25" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="26" t="s">
         <v>61</v>
       </c>
       <c r="G26" s="12">
         <v>223</v>
       </c>
-      <c r="H26" s="26" t="b">
+      <c r="H26" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I26" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="26" t="b">
+      <c r="K26" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L26" s="16" t="b">
@@ -3110,42 +3196,46 @@
       <c r="M26" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N26" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="27" t="s">
+      <c r="N26" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="28" t="s">
+      <c r="D27" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>184</v>
       </c>
       <c r="G27" s="12">
         <v>224</v>
       </c>
-      <c r="H27" s="26" t="b">
+      <c r="H27" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I27" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="26" t="b">
+      <c r="K27" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L27" s="16" t="b">
@@ -3154,42 +3244,46 @@
       <c r="M27" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N27" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="27" t="s">
+      <c r="N27" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="26" t="s">
         <v>62</v>
       </c>
       <c r="G28" s="12">
         <v>225</v>
       </c>
-      <c r="H28" s="26" t="b">
+      <c r="H28" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I28" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="26" t="b">
+      <c r="K28" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L28" s="16" t="b">
@@ -3198,42 +3292,46 @@
       <c r="M28" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N28" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="27" t="s">
+      <c r="N28" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="26" t="s">
         <v>63</v>
       </c>
       <c r="G29" s="12">
         <v>226</v>
       </c>
-      <c r="H29" s="26" t="b">
+      <c r="H29" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I29" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="26" t="b">
+      <c r="K29" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L29" s="16" t="b">
@@ -3242,42 +3340,46 @@
       <c r="M29" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N29" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="27" t="s">
+      <c r="N29" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="26" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="12">
         <v>227</v>
       </c>
-      <c r="H30" s="26" t="b">
+      <c r="H30" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I30" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="26" t="b">
+      <c r="K30" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L30" s="16" t="b">
@@ -3286,86 +3388,94 @@
       <c r="M30" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N30" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="N30" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="26" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="12">
         <v>228</v>
       </c>
-      <c r="H31" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="26" t="s">
+      <c r="H31" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="27" t="s">
+      <c r="K31" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="26" t="s">
         <v>177</v>
       </c>
       <c r="G32" s="12">
         <v>229</v>
       </c>
-      <c r="H32" s="26" t="b">
+      <c r="H32" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I32" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K32" s="26" t="b">
+      <c r="K32" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L32" s="16" t="b">
@@ -3374,42 +3484,46 @@
       <c r="M32" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N32" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="27" t="s">
+      <c r="N32" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="26" t="s">
         <v>144</v>
       </c>
       <c r="G33" s="12">
         <v>230</v>
       </c>
-      <c r="H33" s="26" t="b">
+      <c r="H33" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I33" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="26" t="b">
+      <c r="K33" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L33" s="16" t="b">
@@ -3418,42 +3532,46 @@
       <c r="M33" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N33" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="27" t="s">
+      <c r="N33" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="26" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="12">
         <v>231</v>
       </c>
-      <c r="H34" s="26" t="b">
+      <c r="H34" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I34" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="26" t="b">
+      <c r="K34" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L34" s="16" t="b">
@@ -3462,42 +3580,46 @@
       <c r="M34" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N34" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="27" t="s">
+      <c r="N34" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="26" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="12">
         <v>232</v>
       </c>
-      <c r="H35" s="26" t="b">
+      <c r="H35" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I35" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K35" s="26" t="b">
+      <c r="K35" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L35" s="16" t="b">
@@ -3506,24 +3628,28 @@
       <c r="M35" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N35" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="27" t="s">
+      <c r="N35" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>163</v>
       </c>
       <c r="F36" t="s">
@@ -3532,60 +3658,64 @@
       <c r="G36" s="12">
         <v>233</v>
       </c>
-      <c r="H36" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="26" t="s">
+      <c r="H36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="27" t="s">
+      <c r="K36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="26" t="s">
         <v>164</v>
       </c>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G37" s="12">
         <v>234</v>
       </c>
-      <c r="H37" s="26" t="b">
+      <c r="H37" s="17" t="b">
         <v>0</v>
       </c>
       <c r="I37" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="26" t="b">
+      <c r="K37" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L37" s="16" t="b">
@@ -3594,8 +3724,12 @@
       <c r="M37" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N37" s="18" t="b">
-        <v>0</v>
+      <c r="N37" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3609,9 +3743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,7 +3766,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="24"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3650,7 +3784,7 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3664,10 +3798,10 @@
       <c r="C3" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3681,10 +3815,10 @@
       <c r="C4" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3698,10 +3832,10 @@
       <c r="C5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3718,7 +3852,7 @@
       <c r="E6" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3735,7 +3869,7 @@
       <c r="E7" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3752,7 +3886,7 @@
       <c r="E8" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3769,7 +3903,7 @@
       <c r="E9" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3786,7 +3920,7 @@
       <c r="E10" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3803,7 +3937,7 @@
       <c r="E11" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3820,7 +3954,7 @@
       <c r="E12" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3837,7 +3971,7 @@
       <c r="E13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3854,7 +3988,7 @@
       <c r="E14" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3871,7 +4005,7 @@
       <c r="E15" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3888,7 +4022,7 @@
       <c r="E16" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3902,10 +4036,10 @@
       <c r="C17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3919,10 +4053,10 @@
       <c r="C18" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3936,10 +4070,10 @@
       <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3953,10 +4087,10 @@
       <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3970,10 +4104,10 @@
       <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3987,10 +4121,10 @@
       <c r="C22" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4004,10 +4138,10 @@
       <c r="C23" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4021,10 +4155,10 @@
       <c r="C24" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4038,10 +4172,10 @@
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4055,10 +4189,10 @@
       <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4072,10 +4206,10 @@
       <c r="C27" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4089,10 +4223,10 @@
       <c r="C28" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4106,10 +4240,10 @@
       <c r="C29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4123,10 +4257,10 @@
       <c r="C30" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4140,10 +4274,10 @@
       <c r="C31" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4157,10 +4291,10 @@
       <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4177,7 +4311,7 @@
       <c r="E33" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4191,10 +4325,10 @@
       <c r="C34" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4208,10 +4342,10 @@
       <c r="C35" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4225,10 +4359,10 @@
       <c r="C36" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4242,10 +4376,10 @@
       <c r="C37" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="269">
   <si>
     <t>Variable</t>
   </si>
@@ -619,6 +619,259 @@
   </si>
   <si>
     <t>L'obiettivo dell'indicatore è propagare verticalmente il segnale di rischiosità sulle società controllate nel caso venga aperta una procedura concorsuale (accensione colore blu scuro) sulla capogruppo/subcapogruppo fallita. Per il singolo SNDG viene riportato la percentuale di esposizione della controparte fallita sul gruppo.</t>
+  </si>
+  <si>
+    <t>IND_102</t>
+  </si>
+  <si>
+    <t>IND_103</t>
+  </si>
+  <si>
+    <t>IND_104</t>
+  </si>
+  <si>
+    <t>IND_105</t>
+  </si>
+  <si>
+    <t>IND_106</t>
+  </si>
+  <si>
+    <t>IND_107</t>
+  </si>
+  <si>
+    <t>IND_108</t>
+  </si>
+  <si>
+    <t>IND_114</t>
+  </si>
+  <si>
+    <t>IND_115</t>
+  </si>
+  <si>
+    <t>IND_116</t>
+  </si>
+  <si>
+    <t>IND_117</t>
+  </si>
+  <si>
+    <t>IND_162</t>
+  </si>
+  <si>
+    <t>IND_163</t>
+  </si>
+  <si>
+    <t>IND_164</t>
+  </si>
+  <si>
+    <t>IND_165</t>
+  </si>
+  <si>
+    <t>IND_166</t>
+  </si>
+  <si>
+    <t>IND_167</t>
+  </si>
+  <si>
+    <t>IND_168</t>
+  </si>
+  <si>
+    <t>IND_169</t>
+  </si>
+  <si>
+    <t>IND_170</t>
+  </si>
+  <si>
+    <t>IND_171</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_102</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_103</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_104</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_105</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_106</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_107</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_108</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_114</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_115</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_116</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_117</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_162</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_163</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_164</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_165</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_166</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_167</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_168</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_169</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_170</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_171</t>
+  </si>
+  <si>
+    <t>Indicatore 162 - NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 163 - NPAF_MAX_GG_L1M </t>
+  </si>
+  <si>
+    <t>Indicatore 164 - ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 165 - ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 166 - FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 167 - FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 168 - EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 169 - FACT_ANT_ACC_30G_L1M </t>
+  </si>
+  <si>
+    <t>Indicatore 170 - FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 171 - PREAM_UTIL_ACC_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 102 - Garanzie attivate con esito negativo presso altri istituti</t>
+  </si>
+  <si>
+    <t>Indicatore 103 - Garanzia rilasciate a favore di un nominativo a sofferenza presso altri istituti</t>
+  </si>
+  <si>
+    <t>Indicatore 104 - Socio appartenente a società a sofferenza presso altri istituti</t>
+  </si>
+  <si>
+    <t>Indicatore 105 - Significatività dell'importo a sofferenza</t>
+  </si>
+  <si>
+    <t>Indicatore 106 - Numero rate arretrate per prodotti rateali su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 107 - Giorni di scaduto rate arretrate per prodotti su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 108 - Importo rate arretrate per prodotti su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 114 - Importo di sconfino di C/C</t>
+  </si>
+  <si>
+    <t>Indicatore 115 - Giorni di sconfino di C/C</t>
+  </si>
+  <si>
+    <t>Indicatore 116 - Forborne sconfinato</t>
+  </si>
+  <si>
+    <t>Indicatore 117 - Importo forborne sconfinato</t>
+  </si>
+  <si>
+    <t>L'indicatore assume il valore 1 se per la controparte oggetto di valutazione EW è riscontrata la comparsa di garanzie attivate con esito negativo presso altre banche (per “garanzie attivate con esito negativo” si intendono quelle escusse e per le quali il garante non ha  fatto fronte ai propri impegni).</t>
+  </si>
+  <si>
+    <t>L'indicatore assume il valore 1 se la controparte oggetto di valutazione EW è socio appartenente a società di persone classificata - presso altre banche - a sofferenza, a procedura concorsuale o per la quale è presente l’evidenza di garanzie attivate con esito negativo</t>
+  </si>
+  <si>
+    <t>L'indicatore riporta il rapporto tra l’importo della sofferenza garantita o l’importo della procedura concorsuale garantita rispetto alla somma tra accordato – totale rischi diretti del garante c/o il sistema – e garanzie ricevute – totale rischi indiretti del garante presso il sistema – del garante</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, il numero di rate arretrate (anche parziali) per i prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il numero di giorni di scaduto per la rata arretrata per i: 
+- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, l'importo delle rate arretrate per i: 
+- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>Si richiede di intercettare lo sconfino di conto corrente con o senza linea accordata (incluse le carte di credito in quanto provocano sconfino su conto corrente).
+L'indicatore riporta, per la controparte oggetto di valutazione EW, l'importo di sconfino di conto corrente con esclusione degli sconfini oggetto di autorizzazione in autor/gecen sino alla validità di quest’ultima.</t>
+  </si>
+  <si>
+    <t>Si richiede di intercettare lo sconfino di conto corrente con o senza linea accordata (incluse le carte di credito in quanto provocano sconfino su conto corrente).
+L'indicatore riporta, per la controparte oggetto di valutazione EW, il numero di giorni di sconfino di conto corrente con esclusione degli sconfini oggetto di autorizzazione in autor/gecen sino alla validità di quest’ultima.</t>
+  </si>
+  <si>
+    <t>Rapporto fra l’importo totale anticipato delle fatture risultanti scadute a fine mese da più di 60 giorni e l’accordato per cassa di breve termine mensile</t>
+  </si>
+  <si>
+    <t>Numero massimo di giorni di scaduto valutato nel mese</t>
+  </si>
+  <si>
+    <t>Rapporto fra la quota totale di scaduto da più di 30 giorni per il prodotto antexport e l’accordato per cassa di breve termine mensile</t>
+  </si>
+  <si>
+    <t>Numero massimo di giorni di scaduto valutato nel mese per il prodotto antexport</t>
+  </si>
+  <si>
+    <t>Rapporto fra la quota totale di scaduto da più di 30 giorni per il prodotto finimport e l’accordato per cassa di breve termine mensile</t>
+  </si>
+  <si>
+    <t>Numero massimo di giorni di scaduto valutato nel mese per il prodotto finimport</t>
+  </si>
+  <si>
+    <t>Rapporto fra la somma degli insoluti nel trimestre precedente e la somma degli scaduti nel trimestre precedente</t>
+  </si>
+  <si>
+    <t>Rapporto fra l’importo totale anticipato delle fatture risultanti scadute a fine mese e l’accordato  per cassa di breve termine mensile</t>
+  </si>
+  <si>
+    <t>Rapporto fra la somma mensile degli utilizzi e la somma mensile degli importi iniziali accordati</t>
+  </si>
+  <si>
+    <t>L'indicatore assume valore 1 in presenza di un Forborne sconfinato per la controparte SNDG analizzata .</t>
+  </si>
+  <si>
+    <t>L'indicatore riporta l'importo del Forborne sconfinato.</t>
+  </si>
+  <si>
+    <t>L'indicatore assume il valore 1 se per la controparte oggetto di valutazione EW è riscontrata la presenza, presso altre banche, di garanzie rilasciate a favore di un nominativo a sofferenza o a procedura concorsuale, quando l’importo è significativo.</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1227,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1291,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1355,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1419,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1483,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1547,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1601,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1665,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1729,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1793,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1857,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1911,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1668,7 +1921,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,10 +2240,10 @@
     <col min="12" max="12" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="1017" width="8.7109375"/>
+    <col min="15" max="1016" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +2261,7 @@
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2052,7 +2305,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
@@ -2095,12 +2348,8 @@
       <c r="N3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O3">
-        <f>LEN(D3)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -2143,12 +2392,8 @@
       <c r="N4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O37" si="0">LEN(D4)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -2191,12 +2436,8 @@
       <c r="N5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2239,12 +2480,8 @@
       <c r="N6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
@@ -2287,12 +2524,8 @@
       <c r="N7" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
@@ -2335,12 +2568,8 @@
       <c r="N8" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
@@ -2383,12 +2612,8 @@
       <c r="N9" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
@@ -2431,12 +2656,8 @@
       <c r="N10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -2479,12 +2700,8 @@
       <c r="N11" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
@@ -2527,12 +2744,8 @@
       <c r="N12" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
@@ -2575,12 +2788,8 @@
       <c r="N13" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
@@ -2623,12 +2832,8 @@
       <c r="N14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
@@ -2671,12 +2876,8 @@
       <c r="N15" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
@@ -2719,12 +2920,8 @@
       <c r="N16" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
@@ -2767,12 +2964,8 @@
       <c r="N17" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>11</v>
       </c>
@@ -2815,12 +3008,8 @@
       <c r="N18" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>11</v>
       </c>
@@ -2863,12 +3052,8 @@
       <c r="N19" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>11</v>
       </c>
@@ -2911,12 +3096,8 @@
       <c r="N20" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>11</v>
       </c>
@@ -2959,12 +3140,8 @@
       <c r="N21" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>11</v>
       </c>
@@ -3007,12 +3184,8 @@
       <c r="N22" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="0"/>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>11</v>
       </c>
@@ -3055,12 +3228,8 @@
       <c r="N23" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>11</v>
       </c>
@@ -3103,12 +3272,8 @@
       <c r="N24" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>11</v>
       </c>
@@ -3151,12 +3316,8 @@
       <c r="N25" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>11</v>
       </c>
@@ -3199,12 +3360,8 @@
       <c r="N26" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>11</v>
       </c>
@@ -3247,12 +3404,8 @@
       <c r="N27" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>11</v>
       </c>
@@ -3295,12 +3448,8 @@
       <c r="N28" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>11</v>
       </c>
@@ -3343,12 +3492,8 @@
       <c r="N29" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>11</v>
       </c>
@@ -3391,12 +3536,8 @@
       <c r="N30" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>11</v>
       </c>
@@ -3439,12 +3580,8 @@
       <c r="N31" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>11</v>
       </c>
@@ -3487,12 +3624,8 @@
       <c r="N32" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>11</v>
       </c>
@@ -3535,12 +3668,8 @@
       <c r="N33" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>11</v>
       </c>
@@ -3583,12 +3712,8 @@
       <c r="N34" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>11</v>
       </c>
@@ -3631,12 +3756,8 @@
       <c r="N35" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="0"/>
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>11</v>
       </c>
@@ -3679,12 +3800,8 @@
       <c r="N36" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -3727,9 +3844,929 @@
       <c r="N37" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="0"/>
-        <v>136</v>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="12">
+        <v>235</v>
+      </c>
+      <c r="H38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="12">
+        <v>236</v>
+      </c>
+      <c r="H39" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" s="12">
+        <v>237</v>
+      </c>
+      <c r="H40" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="12">
+        <v>238</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="12">
+        <v>239</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" s="12">
+        <v>240</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="12">
+        <v>241</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" s="12">
+        <v>242</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" t="s">
+        <v>246</v>
+      </c>
+      <c r="G46" s="12">
+        <v>243</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="12">
+        <v>244</v>
+      </c>
+      <c r="H47" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" s="12">
+        <v>245</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" s="12">
+        <v>246</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="12">
+        <v>247</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" t="s">
+        <v>230</v>
+      </c>
+      <c r="G51" s="12">
+        <v>248</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="12">
+        <v>249</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="12">
+        <v>250</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="12">
+        <v>251</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G55" s="12">
+        <v>252</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" t="s">
+        <v>235</v>
+      </c>
+      <c r="G56" s="12">
+        <v>253</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" s="12">
+        <v>254</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" s="12">
+        <v>255</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3741,11 +4778,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,7 +4792,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375"/>
+    <col min="7" max="1024" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -4381,6 +5418,363 @@
       </c>
       <c r="F37" s="24" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="353">
   <si>
     <t>Variable</t>
   </si>
@@ -872,6 +872,263 @@
   </si>
   <si>
     <t>L'indicatore assume il valore 1 se per la controparte oggetto di valutazione EW è riscontrata la presenza, presso altre banche, di garanzie rilasciate a favore di un nominativo a sofferenza o a procedura concorsuale, quando l’importo è significativo.</t>
+  </si>
+  <si>
+    <t>IND_52</t>
+  </si>
+  <si>
+    <t>IND_53</t>
+  </si>
+  <si>
+    <t>IND_60</t>
+  </si>
+  <si>
+    <t>IND_65</t>
+  </si>
+  <si>
+    <t>IND_66</t>
+  </si>
+  <si>
+    <t>IND_70</t>
+  </si>
+  <si>
+    <t>IND_71</t>
+  </si>
+  <si>
+    <t>IND_72</t>
+  </si>
+  <si>
+    <t>IND_80</t>
+  </si>
+  <si>
+    <t>IND_83</t>
+  </si>
+  <si>
+    <t>IND_90</t>
+  </si>
+  <si>
+    <t>IND_91</t>
+  </si>
+  <si>
+    <t>IND_92</t>
+  </si>
+  <si>
+    <t>IND_93</t>
+  </si>
+  <si>
+    <t>IND_94</t>
+  </si>
+  <si>
+    <t>IND_150</t>
+  </si>
+  <si>
+    <t>IND_151</t>
+  </si>
+  <si>
+    <t>IND_200</t>
+  </si>
+  <si>
+    <t>IND_203</t>
+  </si>
+  <si>
+    <t>IND_218</t>
+  </si>
+  <si>
+    <t>IND_219</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_52</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_53</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_60</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_65</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_66</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_70</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_71</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_72</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_80</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_83</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_90</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_91</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_92</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_93</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_94</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_150</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_151</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_200</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_203</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_218</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_219</t>
+  </si>
+  <si>
+    <t>Media sul trimestre dell'importo di sconfino per cassa, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massimo su 90 giorni, del numero di giorni di sconfino per cassa, calcolata considerando solo i giorni per cui si rileva uno sconfino. </t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo CR alzo zero.
+Assume 0, qualora gli indicatori con fonte "CR ad alzo zero" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "CR ad alzo zero" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato autoliquidante e la media trimestrale dell'accordato autoliquidante </t>
+  </si>
+  <si>
+    <t>Rapporto fra l'utilizzato totale per cassa a breve termine da sistema e il fatturato</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato a revoca e la media trimestrale dell'accordato a revoca</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato a scadenza e la media trimestrale dell'accordato a scadenza</t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo AFI.
+Assume 0, qualora gli indicatori con fonte "AFI" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "AFI" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Media trimestrale del valore delle AFI calcolate escludendo lo sconfino su C/C</t>
+  </si>
+  <si>
+    <t>Media trimestrale del numero di movimenti di conto corrente in entrata e uscita</t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo Bilancio Familiare.
+Assume 0, qualora gli indicatori con fonte "BILFAM" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "BILFAM" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale delle rate e la media trimestrale del totale entrate correnti</t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo CR di sistema.
+Assume 0, qualora gli indicatori con fonte "CR Sistema" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "CR Sistema" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato da sistema autoliquidante e la media trimestrale dell'accordato da sistema autoliquidante relativi a rapporti con banche non appartenenti al gruppo ISP</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato da sistema a revoca e la media trimestrale dell'accordato da sistema a revoca relativi a rapporti con banche non appartenenti al gruppo ISP</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato da sistema a scadenza e la media trimestrale dell'accordato da sistema a scadenza relativi a rapporti con banche non appartenenti al gruppo ISP</t>
+  </si>
+  <si>
+    <t>Rapporto fra l'utilizzato totale per cassa a breve termine da sistema relativo a rapporti con banche non appartenenti al gruppo ISP e il fatturato</t>
+  </si>
+  <si>
+    <t>Indicatore 200 - XRA_MEANMISS_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 203 - XRA_MAX_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 52 - XRA_NOSCONF_CONT_L3M </t>
+  </si>
+  <si>
+    <t>Indicatore 53 - XRA_30GG_100_002</t>
+  </si>
+  <si>
+    <t>Indicatore 60 - CR0 - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 65 - CR0_TUA</t>
+  </si>
+  <si>
+    <t>Indicatore 66 - CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>Indicatore 218 - CR0_TUR</t>
+  </si>
+  <si>
+    <t>Indicatore 219 - CR0_TUS</t>
+  </si>
+  <si>
+    <t>Indicatore 70 - AFI - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 71 - AFI_MEAN_NOSC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 72 - AFI_MEAN_NUM_MOV_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 80 - BILFAM - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 83 - BILFAM_RAT_TEC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 90 - CRSYS - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 91 - CRSYS_TUA</t>
+  </si>
+  <si>
+    <t>Indicatore 92 - CRSYS_TUR</t>
+  </si>
+  <si>
+    <t>Indicatore 93 - CRSYS_TUS</t>
+  </si>
+  <si>
+    <t>Indicatore 94 - CRSYS_UCFBT</t>
+  </si>
+  <si>
+    <t>Indicatore 150 - SCONF_NON_AUTOR_1G</t>
+  </si>
+  <si>
+    <t>Indicatore 151 - SCONF_NON_AUTOR_90G</t>
+  </si>
+  <si>
+    <t>L'indicatore conta il numero di mesi per cui non si riscontra nessuno sconfino.</t>
+  </si>
+  <si>
+    <t>Il flag sarà uguale a 1 in presenza di uno sconfino superiore a 30 giorni, di importo superiore a 100 euro e oltre la soglia di materialità del 2%. 
+In tutte le restanti casistiche il flag dovrà essere uguale a 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'indicatore è calcolato come il rapporto tra l'importo complessivo degli sconfini "autorizzati" all'interno del flusso autor e l'importo di sconfino per cassa XRA                                                                                                                                              Per ogni controparte SNDG, l'indicatore verifica la presenza di sconfini autorizzati tra quello/quelli presenti nella giornata in oggetto di analisi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'indiatore è calcolato come il massimo tra il (FLG_SCONF_NON_AUTOR_1G; FLG_SCONF_MAX_NO_AUTOR_89GG)                                                                                                                                          Per ogni controparte sndg, </t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1120,6 +1377,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1227,7 +1490,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1554,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1618,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1682,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1746,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1810,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1864,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1928,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1992,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +2056,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +2120,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +2175,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1921,7 +2184,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="D54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2503,7 @@
     <col min="12" max="12" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="1016" width="8.7109375"/>
+    <col min="15" max="1015" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
@@ -4769,6 +5032,930 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C59" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" t="s">
+        <v>311</v>
+      </c>
+      <c r="E59" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" s="12">
+        <v>256</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" t="s">
+        <v>312</v>
+      </c>
+      <c r="E60" t="s">
+        <v>287</v>
+      </c>
+      <c r="F60" t="s">
+        <v>329</v>
+      </c>
+      <c r="G60" s="12">
+        <v>257</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" t="s">
+        <v>349</v>
+      </c>
+      <c r="E61" t="s">
+        <v>269</v>
+      </c>
+      <c r="F61" t="s">
+        <v>330</v>
+      </c>
+      <c r="G61" s="12">
+        <v>258</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" t="s">
+        <v>331</v>
+      </c>
+      <c r="G62" s="12">
+        <v>259</v>
+      </c>
+      <c r="H62" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" t="s">
+        <v>292</v>
+      </c>
+      <c r="D63" t="s">
+        <v>313</v>
+      </c>
+      <c r="E63" t="s">
+        <v>271</v>
+      </c>
+      <c r="F63" t="s">
+        <v>332</v>
+      </c>
+      <c r="G63" s="12">
+        <v>260</v>
+      </c>
+      <c r="H63" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" t="s">
+        <v>293</v>
+      </c>
+      <c r="D64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" t="s">
+        <v>333</v>
+      </c>
+      <c r="G64" s="12">
+        <v>261</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" t="s">
+        <v>334</v>
+      </c>
+      <c r="G65" s="12">
+        <v>262</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" t="s">
+        <v>316</v>
+      </c>
+      <c r="E66" t="s">
+        <v>288</v>
+      </c>
+      <c r="F66" t="s">
+        <v>335</v>
+      </c>
+      <c r="G66" s="12">
+        <v>263</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" t="s">
+        <v>317</v>
+      </c>
+      <c r="E67" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" t="s">
+        <v>336</v>
+      </c>
+      <c r="G67" s="12">
+        <v>264</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" t="s">
+        <v>318</v>
+      </c>
+      <c r="E68" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" t="s">
+        <v>337</v>
+      </c>
+      <c r="G68" s="12">
+        <v>265</v>
+      </c>
+      <c r="H68" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K68" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" t="s">
+        <v>296</v>
+      </c>
+      <c r="D69" t="s">
+        <v>319</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" t="s">
+        <v>338</v>
+      </c>
+      <c r="G69" s="12">
+        <v>266</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" t="s">
+        <v>339</v>
+      </c>
+      <c r="G70" s="12">
+        <v>267</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E71" t="s">
+        <v>277</v>
+      </c>
+      <c r="F71" t="s">
+        <v>340</v>
+      </c>
+      <c r="G71" s="12">
+        <v>268</v>
+      </c>
+      <c r="H71" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" t="s">
+        <v>322</v>
+      </c>
+      <c r="E72" t="s">
+        <v>278</v>
+      </c>
+      <c r="F72" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72" s="12">
+        <v>269</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73" t="s">
+        <v>323</v>
+      </c>
+      <c r="E73" t="s">
+        <v>279</v>
+      </c>
+      <c r="F73" t="s">
+        <v>342</v>
+      </c>
+      <c r="G73" s="12">
+        <v>270</v>
+      </c>
+      <c r="H73" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" t="s">
+        <v>324</v>
+      </c>
+      <c r="E74" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" t="s">
+        <v>343</v>
+      </c>
+      <c r="G74" s="12">
+        <v>271</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" t="s">
+        <v>325</v>
+      </c>
+      <c r="E75" t="s">
+        <v>281</v>
+      </c>
+      <c r="F75" t="s">
+        <v>344</v>
+      </c>
+      <c r="G75" s="12">
+        <v>272</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" t="s">
+        <v>326</v>
+      </c>
+      <c r="E76" t="s">
+        <v>282</v>
+      </c>
+      <c r="F76" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" s="12">
+        <v>273</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" t="s">
+        <v>327</v>
+      </c>
+      <c r="E77" t="s">
+        <v>283</v>
+      </c>
+      <c r="F77" t="s">
+        <v>346</v>
+      </c>
+      <c r="G77" s="12">
+        <v>274</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" t="s">
+        <v>351</v>
+      </c>
+      <c r="E78" t="s">
+        <v>284</v>
+      </c>
+      <c r="F78" t="s">
+        <v>347</v>
+      </c>
+      <c r="G78" s="12">
+        <v>275</v>
+      </c>
+      <c r="H78" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" t="s">
+        <v>306</v>
+      </c>
+      <c r="D79" t="s">
+        <v>352</v>
+      </c>
+      <c r="E79" t="s">
+        <v>285</v>
+      </c>
+      <c r="F79" t="s">
+        <v>348</v>
+      </c>
+      <c r="G79" s="12">
+        <v>276</v>
+      </c>
+      <c r="H79" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K79" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4778,11 +5965,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,7 +5979,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="1024" width="8.7109375"/>
+    <col min="7" max="1023" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -5775,6 +6962,363 @@
       </c>
       <c r="F58" s="24" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C59" t="s">
+        <v>307</v>
+      </c>
+      <c r="E59" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" t="s">
+        <v>308</v>
+      </c>
+      <c r="E60" t="s">
+        <v>308</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" t="s">
+        <v>290</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>291</v>
+      </c>
+      <c r="C62" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" t="s">
+        <v>291</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" t="s">
+        <v>292</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" t="s">
+        <v>309</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" t="s">
+        <v>310</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68" t="s">
+        <v>295</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" t="s">
+        <v>296</v>
+      </c>
+      <c r="E69" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" t="s">
+        <v>297</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" t="s">
+        <v>298</v>
+      </c>
+      <c r="E71" t="s">
+        <v>298</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" t="s">
+        <v>301</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" t="s">
+        <v>303</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="E77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" t="s">
+        <v>305</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" t="s">
+        <v>306</v>
+      </c>
+      <c r="E79" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1554,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1618,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1746,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1810,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1864,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1928,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +1992,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2056,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2120,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2184,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="D54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59:J79"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>45</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>45</v>
@@ -5967,9 +5967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="546">
   <si>
     <t>Variable</t>
   </si>
@@ -1129,6 +1129,587 @@
   </si>
   <si>
     <t xml:space="preserve">l'indiatore è calcolato come il massimo tra il (FLG_SCONF_NON_AUTOR_1G; FLG_SCONF_MAX_NO_AUTOR_89GG)                                                                                                                                          Per ogni controparte sndg, </t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_201</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_202</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_204</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_205</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_206</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_207</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_208</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_209</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_234</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_211</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_235</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_212</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_213</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_214</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_215</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_216</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_217</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_220</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_221</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_222</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_223</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_224</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_225</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_226</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_227</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_232</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_233</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_250</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_251</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_252</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_253</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_254</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_255</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_256</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_257</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_258</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_259</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_260</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_261</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_262</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_263</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_264</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_265</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_266</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_267</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_268</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_269</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_270</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_271</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_272</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_273</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_274</t>
+  </si>
+  <si>
+    <t>IND_201</t>
+  </si>
+  <si>
+    <t>IND_202</t>
+  </si>
+  <si>
+    <t>IND_204</t>
+  </si>
+  <si>
+    <t>IND_205</t>
+  </si>
+  <si>
+    <t>IND_206</t>
+  </si>
+  <si>
+    <t>IND_207</t>
+  </si>
+  <si>
+    <t>IND_208</t>
+  </si>
+  <si>
+    <t>IND_209</t>
+  </si>
+  <si>
+    <t>IND_234</t>
+  </si>
+  <si>
+    <t>IND_211</t>
+  </si>
+  <si>
+    <t>IND_235</t>
+  </si>
+  <si>
+    <t>IND_212</t>
+  </si>
+  <si>
+    <t>IND_213</t>
+  </si>
+  <si>
+    <t>IND_214</t>
+  </si>
+  <si>
+    <t>IND_215</t>
+  </si>
+  <si>
+    <t>IND_216</t>
+  </si>
+  <si>
+    <t>IND_217</t>
+  </si>
+  <si>
+    <t>IND_220</t>
+  </si>
+  <si>
+    <t>IND_221</t>
+  </si>
+  <si>
+    <t>IND_222</t>
+  </si>
+  <si>
+    <t>IND_223</t>
+  </si>
+  <si>
+    <t>IND_224</t>
+  </si>
+  <si>
+    <t>IND_225</t>
+  </si>
+  <si>
+    <t>IND_226</t>
+  </si>
+  <si>
+    <t>IND_227</t>
+  </si>
+  <si>
+    <t>IND_232</t>
+  </si>
+  <si>
+    <t>IND_233</t>
+  </si>
+  <si>
+    <t>IND_250</t>
+  </si>
+  <si>
+    <t>IND_251</t>
+  </si>
+  <si>
+    <t>IND_252</t>
+  </si>
+  <si>
+    <t>IND_253</t>
+  </si>
+  <si>
+    <t>IND_254</t>
+  </si>
+  <si>
+    <t>IND_255</t>
+  </si>
+  <si>
+    <t>IND_256</t>
+  </si>
+  <si>
+    <t>IND_257</t>
+  </si>
+  <si>
+    <t>IND_258</t>
+  </si>
+  <si>
+    <t>IND_259</t>
+  </si>
+  <si>
+    <t>IND_260</t>
+  </si>
+  <si>
+    <t>IND_261</t>
+  </si>
+  <si>
+    <t>IND_262</t>
+  </si>
+  <si>
+    <t>IND_263</t>
+  </si>
+  <si>
+    <t>IND_264</t>
+  </si>
+  <si>
+    <t>IND_265</t>
+  </si>
+  <si>
+    <t>IND_266</t>
+  </si>
+  <si>
+    <t>IND_267</t>
+  </si>
+  <si>
+    <t>IND_268</t>
+  </si>
+  <si>
+    <t>IND_269</t>
+  </si>
+  <si>
+    <t>IND_270</t>
+  </si>
+  <si>
+    <t>IND_271</t>
+  </si>
+  <si>
+    <t>IND_272</t>
+  </si>
+  <si>
+    <t>IND_273</t>
+  </si>
+  <si>
+    <t>IND_274</t>
+  </si>
+  <si>
+    <t>Indicatore 201 - XRA_MEANMISS_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 202 - XRA_MAX_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 204 - XRA_MEAN_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 205 - XRA_MEANMISS_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 206 - XRA_MAX_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 207 - XRA_NUM_GG_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 208 - XRA_SCONF_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 209 - XRA_SCONF_UTI_L1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 234 - XRA_RSC_ACC_L1M </t>
+  </si>
+  <si>
+    <t>Indicatore 211 - AFI_MEAN_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 235 - AFI_MEAN_NOSC_FIDO_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 212 - CR0_MR_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 213 - CR0_MS_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 214 - CR0_MC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 215 - CR0_MT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 216 - CR0_SCC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 217 - CR0_SCT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 220 - CR0_TUC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 221 - CR0_TUT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 222 - CR0_ITUR_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 223 - CR0_ITUS_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 224 - CR0_ITUC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 225 - BILFAM_TE_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 226 - BILFAM_TUC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 227 - BILFAM_TU_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 232 - BILFAM_SALC_L6M</t>
+  </si>
+  <si>
+    <t>Indicatore 233 - BILFAM_SAL_L6M</t>
+  </si>
+  <si>
+    <t>Indicatore 250 - XRA_MEAN_SCONF_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 251 - XRA_MEAN_NUM_GG_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 252 - XRA_NOSCONF_CONT_NOCOL_L3M </t>
+  </si>
+  <si>
+    <t>Indicatore 253 - XRA_NOCOL_30GG_100_002</t>
+  </si>
+  <si>
+    <t>Indicatore 254 - CR0_TUA_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 255 - CR0_TUR_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 256 - CR0_TUS_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 257 - CR0_UCFBT_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 258 - CRSYS_TUA_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 259 - CRSYS_TUR_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 260 - CRSYS_TUS_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 261 - CRSYS_UCFBT_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 262 - AFI_MEAN_NOSC_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 263 - AFI_MEAN_NUM_MOV_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 264 - BILFAM_RAT_TEC_NOCOL_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 265 - NPAF_ANT_ACC_60G_NOCOL_L1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 266 - NPAF_MAX_GG_NOCOL_L1M </t>
+  </si>
+  <si>
+    <t>Indicatore 267 - ANTEXP_SCAD_ACC_30G_NOCOL_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 268 - ANTEXP_MAX_GG_NOCOL_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 269 - FINIMP_SCAD_ACC_30G_NOCOL_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 270 - FINIMP_MAX_GG_NOCOL_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 271 - EFINS_INSOL_SCAD_TPREC_NOCOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 272 - FACT_ANT_ACC_30G_NOCOL_L1M </t>
+  </si>
+  <si>
+    <t>Indicatore 273 - FACT_MAX_GG_NOCOL_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 274 - PREAM_UTIL_ACC_NOCOL_L1M</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del numero di giorni di sconfino per cassa continuativi, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Massimo sul trimestre dell'importo di sconfino per cassa, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Massimo sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Ultimo numero di giorni di sconfino per cassa continuativi.</t>
+  </si>
+  <si>
+    <t>Ultimo importo di sconfino per cassa</t>
+  </si>
+  <si>
+    <t>Ultimo rapporto disponibile tra sconfino per cassa e utilizzo totale</t>
+  </si>
+  <si>
+    <t>Rapporto fra l'importo dello sconfino mensile del Cliente sotto o sopra soglia di materialità e l'importo dell'accordato operativo mensile</t>
+  </si>
+  <si>
+    <t>Media trimestrale degli sconfini di conto corrente se presenti altrimenti 0</t>
+  </si>
+  <si>
+    <t>Media trimestrale del valore delle AFI calcolate</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti a revoca</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti a scadenza</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti per cassa</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti per cassa</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato per cassa e la  media trimestrale dell'accordato per cassa </t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato su tutti i prodotti e la  media trimestrale dell'accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo a revoca dell’ultimo mese e la tensione di utilizzo a revoca media del trimestre</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo a scadenza dell’ultimo mese e la tensione di utilizzo a scadenza media del trimestre</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo per cassa dell’ultimo mese e la tensione di utilizzo per cassa media del trimestre</t>
+  </si>
+  <si>
+    <t>Media trimestrale del totale entrate</t>
+  </si>
+  <si>
+    <t>Media trimestrale del totale uscite correnti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media trimestrale del totale uscite </t>
+  </si>
+  <si>
+    <t>Media semestrale del saldo corrente</t>
+  </si>
+  <si>
+    <t>Media semestrale del saldo totale</t>
+  </si>
+  <si>
+    <t>Media sul trimestre dell'importo di sconfino per cassa, calcolata considerando un valore pari a zero per l’importo in caso di assenza sconfino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore calcola la media su 90 giorni del numero di giorni di sconfino per cassa, calcolata considerando solo i giorni per cui si rileva uno sconfino. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato a revoca e la media trimestrale dell'accordato a revoca </t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato a scadenza e la media trimestrale dell'accordato a scadenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partire dal mese più recente fra i 3 componenti il periodo di osservazione, l'indicatore conta il numero di mesi per cui non si riscontra nessuno sconfino. </t>
+  </si>
+  <si>
+    <t>Il flag dovrà essere valutato utilizzando un solo flusso XRA ed in particolare il più recente.
+Il flag sarà uguale a 1 in presenza di uno sconfino superiore a 30 giorni, di importo superiore a 100 euro e oltre la soglia di materialità del 2%. 
+In tutte le restanti casistiche il flag dovrà essere uguale a 0.</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_900</t>
+  </si>
+  <si>
+    <t>Indicatore 900 - Product mix</t>
+  </si>
+  <si>
+    <t>IND_900</t>
+  </si>
+  <si>
+    <t>Dal flusso SISBA l'indicatore ricava e valorizza tutte le forme tecniche associate alla controparte. Le forme tecniche sono espresse in sigla a 2 byte. In caso di più forme tecniche per la stessa controparte, verrà riportate tutte in sequenza separate da pipe</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +2071,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +2135,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +2199,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +2263,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +2327,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +2391,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +2445,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +2509,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +2573,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2637,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2701,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2765,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,6 +6537,2338 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" t="s">
+        <v>353</v>
+      </c>
+      <c r="D80" t="s">
+        <v>509</v>
+      </c>
+      <c r="E80" t="s">
+        <v>405</v>
+      </c>
+      <c r="F80" t="s">
+        <v>457</v>
+      </c>
+      <c r="G80" s="12">
+        <v>277</v>
+      </c>
+      <c r="H80" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" t="s">
+        <v>354</v>
+      </c>
+      <c r="D81" t="s">
+        <v>510</v>
+      </c>
+      <c r="E81" t="s">
+        <v>406</v>
+      </c>
+      <c r="F81" t="s">
+        <v>458</v>
+      </c>
+      <c r="G81" s="12">
+        <v>278</v>
+      </c>
+      <c r="H81" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C82" t="s">
+        <v>355</v>
+      </c>
+      <c r="D82" t="s">
+        <v>511</v>
+      </c>
+      <c r="E82" t="s">
+        <v>407</v>
+      </c>
+      <c r="F82" t="s">
+        <v>459</v>
+      </c>
+      <c r="G82" s="12">
+        <v>279</v>
+      </c>
+      <c r="H82" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C83" t="s">
+        <v>356</v>
+      </c>
+      <c r="D83" t="s">
+        <v>512</v>
+      </c>
+      <c r="E83" t="s">
+        <v>408</v>
+      </c>
+      <c r="F83" t="s">
+        <v>460</v>
+      </c>
+      <c r="G83" s="12">
+        <v>280</v>
+      </c>
+      <c r="H83" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C84" t="s">
+        <v>357</v>
+      </c>
+      <c r="D84" t="s">
+        <v>513</v>
+      </c>
+      <c r="E84" t="s">
+        <v>409</v>
+      </c>
+      <c r="F84" t="s">
+        <v>461</v>
+      </c>
+      <c r="G84" s="12">
+        <v>281</v>
+      </c>
+      <c r="H84" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C85" t="s">
+        <v>358</v>
+      </c>
+      <c r="D85" t="s">
+        <v>514</v>
+      </c>
+      <c r="E85" t="s">
+        <v>410</v>
+      </c>
+      <c r="F85" t="s">
+        <v>462</v>
+      </c>
+      <c r="G85" s="12">
+        <v>282</v>
+      </c>
+      <c r="H85" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C86" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" t="s">
+        <v>515</v>
+      </c>
+      <c r="E86" t="s">
+        <v>411</v>
+      </c>
+      <c r="F86" t="s">
+        <v>463</v>
+      </c>
+      <c r="G86" s="12">
+        <v>283</v>
+      </c>
+      <c r="H86" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D87" t="s">
+        <v>516</v>
+      </c>
+      <c r="E87" t="s">
+        <v>412</v>
+      </c>
+      <c r="F87" t="s">
+        <v>464</v>
+      </c>
+      <c r="G87" s="12">
+        <v>284</v>
+      </c>
+      <c r="H87" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" t="s">
+        <v>517</v>
+      </c>
+      <c r="E88" t="s">
+        <v>413</v>
+      </c>
+      <c r="F88" t="s">
+        <v>465</v>
+      </c>
+      <c r="G88" s="12">
+        <v>285</v>
+      </c>
+      <c r="H88" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" t="s">
+        <v>362</v>
+      </c>
+      <c r="D89" t="s">
+        <v>518</v>
+      </c>
+      <c r="E89" t="s">
+        <v>414</v>
+      </c>
+      <c r="F89" t="s">
+        <v>466</v>
+      </c>
+      <c r="G89" s="12">
+        <v>286</v>
+      </c>
+      <c r="H89" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C90" t="s">
+        <v>363</v>
+      </c>
+      <c r="D90" t="s">
+        <v>519</v>
+      </c>
+      <c r="E90" t="s">
+        <v>415</v>
+      </c>
+      <c r="F90" t="s">
+        <v>467</v>
+      </c>
+      <c r="G90" s="12">
+        <v>287</v>
+      </c>
+      <c r="H90" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C91" t="s">
+        <v>364</v>
+      </c>
+      <c r="D91" t="s">
+        <v>520</v>
+      </c>
+      <c r="E91" t="s">
+        <v>416</v>
+      </c>
+      <c r="F91" t="s">
+        <v>468</v>
+      </c>
+      <c r="G91" s="12">
+        <v>288</v>
+      </c>
+      <c r="H91" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C92" t="s">
+        <v>365</v>
+      </c>
+      <c r="D92" t="s">
+        <v>521</v>
+      </c>
+      <c r="E92" t="s">
+        <v>417</v>
+      </c>
+      <c r="F92" t="s">
+        <v>469</v>
+      </c>
+      <c r="G92" s="12">
+        <v>289</v>
+      </c>
+      <c r="H92" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K92" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C93" t="s">
+        <v>366</v>
+      </c>
+      <c r="D93" t="s">
+        <v>522</v>
+      </c>
+      <c r="E93" t="s">
+        <v>418</v>
+      </c>
+      <c r="F93" t="s">
+        <v>470</v>
+      </c>
+      <c r="G93" s="12">
+        <v>290</v>
+      </c>
+      <c r="H93" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C94" t="s">
+        <v>367</v>
+      </c>
+      <c r="D94" t="s">
+        <v>523</v>
+      </c>
+      <c r="E94" t="s">
+        <v>419</v>
+      </c>
+      <c r="F94" t="s">
+        <v>471</v>
+      </c>
+      <c r="G94" s="12">
+        <v>291</v>
+      </c>
+      <c r="H94" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C95" t="s">
+        <v>368</v>
+      </c>
+      <c r="D95" t="s">
+        <v>524</v>
+      </c>
+      <c r="E95" t="s">
+        <v>420</v>
+      </c>
+      <c r="F95" t="s">
+        <v>472</v>
+      </c>
+      <c r="G95" s="12">
+        <v>292</v>
+      </c>
+      <c r="H95" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K95" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96" t="s">
+        <v>369</v>
+      </c>
+      <c r="D96" t="s">
+        <v>525</v>
+      </c>
+      <c r="E96" t="s">
+        <v>421</v>
+      </c>
+      <c r="F96" t="s">
+        <v>473</v>
+      </c>
+      <c r="G96" s="12">
+        <v>293</v>
+      </c>
+      <c r="H96" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K96" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97" t="s">
+        <v>370</v>
+      </c>
+      <c r="D97" t="s">
+        <v>526</v>
+      </c>
+      <c r="E97" t="s">
+        <v>422</v>
+      </c>
+      <c r="F97" t="s">
+        <v>474</v>
+      </c>
+      <c r="G97" s="12">
+        <v>294</v>
+      </c>
+      <c r="H97" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C98" t="s">
+        <v>371</v>
+      </c>
+      <c r="D98" t="s">
+        <v>527</v>
+      </c>
+      <c r="E98" t="s">
+        <v>423</v>
+      </c>
+      <c r="F98" t="s">
+        <v>475</v>
+      </c>
+      <c r="G98" s="12">
+        <v>295</v>
+      </c>
+      <c r="H98" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C99" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" t="s">
+        <v>528</v>
+      </c>
+      <c r="E99" t="s">
+        <v>424</v>
+      </c>
+      <c r="F99" t="s">
+        <v>476</v>
+      </c>
+      <c r="G99" s="12">
+        <v>296</v>
+      </c>
+      <c r="H99" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C100" t="s">
+        <v>373</v>
+      </c>
+      <c r="D100" t="s">
+        <v>529</v>
+      </c>
+      <c r="E100" t="s">
+        <v>425</v>
+      </c>
+      <c r="F100" t="s">
+        <v>477</v>
+      </c>
+      <c r="G100" s="12">
+        <v>297</v>
+      </c>
+      <c r="H100" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" t="s">
+        <v>374</v>
+      </c>
+      <c r="D101" t="s">
+        <v>530</v>
+      </c>
+      <c r="E101" t="s">
+        <v>426</v>
+      </c>
+      <c r="F101" t="s">
+        <v>478</v>
+      </c>
+      <c r="G101" s="12">
+        <v>298</v>
+      </c>
+      <c r="H101" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K101" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C102" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" t="s">
+        <v>531</v>
+      </c>
+      <c r="E102" t="s">
+        <v>427</v>
+      </c>
+      <c r="F102" t="s">
+        <v>479</v>
+      </c>
+      <c r="G102" s="12">
+        <v>299</v>
+      </c>
+      <c r="H102" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K102" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C103" t="s">
+        <v>376</v>
+      </c>
+      <c r="D103" t="s">
+        <v>532</v>
+      </c>
+      <c r="E103" t="s">
+        <v>428</v>
+      </c>
+      <c r="F103" t="s">
+        <v>480</v>
+      </c>
+      <c r="G103" s="12">
+        <v>300</v>
+      </c>
+      <c r="H103" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K103" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L103" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" t="s">
+        <v>377</v>
+      </c>
+      <c r="D104" t="s">
+        <v>533</v>
+      </c>
+      <c r="E104" t="s">
+        <v>429</v>
+      </c>
+      <c r="F104" t="s">
+        <v>481</v>
+      </c>
+      <c r="G104" s="12">
+        <v>301</v>
+      </c>
+      <c r="H104" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K104" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L104" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C105" t="s">
+        <v>378</v>
+      </c>
+      <c r="D105" t="s">
+        <v>534</v>
+      </c>
+      <c r="E105" t="s">
+        <v>430</v>
+      </c>
+      <c r="F105" t="s">
+        <v>482</v>
+      </c>
+      <c r="G105" s="12">
+        <v>302</v>
+      </c>
+      <c r="H105" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K105" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" t="s">
+        <v>379</v>
+      </c>
+      <c r="D106" t="s">
+        <v>535</v>
+      </c>
+      <c r="E106" t="s">
+        <v>431</v>
+      </c>
+      <c r="F106" t="s">
+        <v>483</v>
+      </c>
+      <c r="G106" s="12">
+        <v>303</v>
+      </c>
+      <c r="H106" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L106" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C107" t="s">
+        <v>380</v>
+      </c>
+      <c r="D107" t="s">
+        <v>536</v>
+      </c>
+      <c r="E107" t="s">
+        <v>432</v>
+      </c>
+      <c r="F107" t="s">
+        <v>484</v>
+      </c>
+      <c r="G107" s="12">
+        <v>304</v>
+      </c>
+      <c r="H107" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K107" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" t="s">
+        <v>381</v>
+      </c>
+      <c r="D108" t="s">
+        <v>537</v>
+      </c>
+      <c r="E108" t="s">
+        <v>433</v>
+      </c>
+      <c r="F108" t="s">
+        <v>485</v>
+      </c>
+      <c r="G108" s="12">
+        <v>305</v>
+      </c>
+      <c r="H108" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C109" t="s">
+        <v>382</v>
+      </c>
+      <c r="D109" t="s">
+        <v>540</v>
+      </c>
+      <c r="E109" t="s">
+        <v>434</v>
+      </c>
+      <c r="F109" t="s">
+        <v>486</v>
+      </c>
+      <c r="G109" s="12">
+        <v>306</v>
+      </c>
+      <c r="H109" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="E110" t="s">
+        <v>435</v>
+      </c>
+      <c r="F110" t="s">
+        <v>487</v>
+      </c>
+      <c r="G110" s="12">
+        <v>307</v>
+      </c>
+      <c r="H110" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K110" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C111" t="s">
+        <v>384</v>
+      </c>
+      <c r="D111" t="s">
+        <v>314</v>
+      </c>
+      <c r="E111" t="s">
+        <v>436</v>
+      </c>
+      <c r="F111" t="s">
+        <v>488</v>
+      </c>
+      <c r="G111" s="12">
+        <v>308</v>
+      </c>
+      <c r="H111" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K111" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L111" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N111" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C112" t="s">
+        <v>385</v>
+      </c>
+      <c r="D112" t="s">
+        <v>538</v>
+      </c>
+      <c r="E112" t="s">
+        <v>437</v>
+      </c>
+      <c r="F112" t="s">
+        <v>489</v>
+      </c>
+      <c r="G112" s="12">
+        <v>309</v>
+      </c>
+      <c r="H112" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K112" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L112" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N112" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" t="s">
+        <v>386</v>
+      </c>
+      <c r="D113" t="s">
+        <v>539</v>
+      </c>
+      <c r="E113" t="s">
+        <v>438</v>
+      </c>
+      <c r="F113" t="s">
+        <v>490</v>
+      </c>
+      <c r="G113" s="12">
+        <v>310</v>
+      </c>
+      <c r="H113" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K113" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L113" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N113" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C114" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" t="s">
+        <v>315</v>
+      </c>
+      <c r="E114" t="s">
+        <v>439</v>
+      </c>
+      <c r="F114" t="s">
+        <v>491</v>
+      </c>
+      <c r="G114" s="12">
+        <v>311</v>
+      </c>
+      <c r="H114" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K114" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N114" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C115" t="s">
+        <v>388</v>
+      </c>
+      <c r="D115" t="s">
+        <v>324</v>
+      </c>
+      <c r="E115" t="s">
+        <v>440</v>
+      </c>
+      <c r="F115" t="s">
+        <v>492</v>
+      </c>
+      <c r="G115" s="12">
+        <v>312</v>
+      </c>
+      <c r="H115" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K115" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L115" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N115" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C116" t="s">
+        <v>389</v>
+      </c>
+      <c r="D116" t="s">
+        <v>325</v>
+      </c>
+      <c r="E116" t="s">
+        <v>441</v>
+      </c>
+      <c r="F116" t="s">
+        <v>493</v>
+      </c>
+      <c r="G116" s="12">
+        <v>313</v>
+      </c>
+      <c r="H116" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K116" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N116" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" t="s">
+        <v>390</v>
+      </c>
+      <c r="D117" t="s">
+        <v>326</v>
+      </c>
+      <c r="E117" t="s">
+        <v>442</v>
+      </c>
+      <c r="F117" t="s">
+        <v>494</v>
+      </c>
+      <c r="G117" s="12">
+        <v>314</v>
+      </c>
+      <c r="H117" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K117" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N117" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C118" t="s">
+        <v>391</v>
+      </c>
+      <c r="D118" t="s">
+        <v>327</v>
+      </c>
+      <c r="E118" t="s">
+        <v>443</v>
+      </c>
+      <c r="F118" t="s">
+        <v>495</v>
+      </c>
+      <c r="G118" s="12">
+        <v>315</v>
+      </c>
+      <c r="H118" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K118" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L118" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C119" t="s">
+        <v>392</v>
+      </c>
+      <c r="D119" t="s">
+        <v>319</v>
+      </c>
+      <c r="E119" t="s">
+        <v>444</v>
+      </c>
+      <c r="F119" t="s">
+        <v>496</v>
+      </c>
+      <c r="G119" s="12">
+        <v>316</v>
+      </c>
+      <c r="H119" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L119" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C120" t="s">
+        <v>393</v>
+      </c>
+      <c r="D120" t="s">
+        <v>320</v>
+      </c>
+      <c r="E120" t="s">
+        <v>445</v>
+      </c>
+      <c r="F120" t="s">
+        <v>497</v>
+      </c>
+      <c r="G120" s="12">
+        <v>317</v>
+      </c>
+      <c r="H120" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K120" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N120" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121" t="s">
+        <v>394</v>
+      </c>
+      <c r="D121" t="s">
+        <v>322</v>
+      </c>
+      <c r="E121" t="s">
+        <v>446</v>
+      </c>
+      <c r="F121" t="s">
+        <v>498</v>
+      </c>
+      <c r="G121" s="12">
+        <v>318</v>
+      </c>
+      <c r="H121" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K121" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L121" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N121" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C122" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" t="s">
+        <v>257</v>
+      </c>
+      <c r="E122" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" t="s">
+        <v>499</v>
+      </c>
+      <c r="G122" s="12">
+        <v>319</v>
+      </c>
+      <c r="H122" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K122" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N122" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C123" t="s">
+        <v>396</v>
+      </c>
+      <c r="D123" t="s">
+        <v>258</v>
+      </c>
+      <c r="E123" t="s">
+        <v>448</v>
+      </c>
+      <c r="F123" t="s">
+        <v>500</v>
+      </c>
+      <c r="G123" s="12">
+        <v>320</v>
+      </c>
+      <c r="H123" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K123" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L123" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C124" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" t="s">
+        <v>259</v>
+      </c>
+      <c r="E124" t="s">
+        <v>449</v>
+      </c>
+      <c r="F124" t="s">
+        <v>501</v>
+      </c>
+      <c r="G124" s="12">
+        <v>321</v>
+      </c>
+      <c r="H124" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K124" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L124" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C125" t="s">
+        <v>398</v>
+      </c>
+      <c r="D125" t="s">
+        <v>260</v>
+      </c>
+      <c r="E125" t="s">
+        <v>450</v>
+      </c>
+      <c r="F125" t="s">
+        <v>502</v>
+      </c>
+      <c r="G125" s="12">
+        <v>322</v>
+      </c>
+      <c r="H125" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K125" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L125" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N125" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C126" t="s">
+        <v>399</v>
+      </c>
+      <c r="D126" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" t="s">
+        <v>451</v>
+      </c>
+      <c r="F126" t="s">
+        <v>503</v>
+      </c>
+      <c r="G126" s="12">
+        <v>323</v>
+      </c>
+      <c r="H126" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K126" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N126" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" t="s">
+        <v>400</v>
+      </c>
+      <c r="D127" t="s">
+        <v>262</v>
+      </c>
+      <c r="E127" t="s">
+        <v>452</v>
+      </c>
+      <c r="F127" t="s">
+        <v>504</v>
+      </c>
+      <c r="G127" s="12">
+        <v>324</v>
+      </c>
+      <c r="H127" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K127" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L127" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C128" t="s">
+        <v>401</v>
+      </c>
+      <c r="D128" t="s">
+        <v>263</v>
+      </c>
+      <c r="E128" t="s">
+        <v>453</v>
+      </c>
+      <c r="F128" t="s">
+        <v>505</v>
+      </c>
+      <c r="G128" s="12">
+        <v>325</v>
+      </c>
+      <c r="H128" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K128" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L128" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N128" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C129" t="s">
+        <v>402</v>
+      </c>
+      <c r="D129" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" t="s">
+        <v>454</v>
+      </c>
+      <c r="F129" t="s">
+        <v>506</v>
+      </c>
+      <c r="G129" s="12">
+        <v>326</v>
+      </c>
+      <c r="H129" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K129" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L129" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N129" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C130" t="s">
+        <v>403</v>
+      </c>
+      <c r="D130" t="s">
+        <v>258</v>
+      </c>
+      <c r="E130" t="s">
+        <v>455</v>
+      </c>
+      <c r="F130" t="s">
+        <v>507</v>
+      </c>
+      <c r="G130" s="12">
+        <v>327</v>
+      </c>
+      <c r="H130" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K130" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L130" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N130" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C131" t="s">
+        <v>404</v>
+      </c>
+      <c r="D131" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131" t="s">
+        <v>456</v>
+      </c>
+      <c r="F131" t="s">
+        <v>508</v>
+      </c>
+      <c r="G131" s="12">
+        <v>328</v>
+      </c>
+      <c r="H131" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K131" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L131" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="D132" t="s">
+        <v>545</v>
+      </c>
+      <c r="E132" t="s">
+        <v>544</v>
+      </c>
+      <c r="F132" t="s">
+        <v>543</v>
+      </c>
+      <c r="G132" s="12">
+        <v>329</v>
+      </c>
+      <c r="H132" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K132" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -5965,11 +8878,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5979,7 +8892,8 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="1023" width="8.7109375"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="1023" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -7318,6 +10232,907 @@
         <v>306</v>
       </c>
       <c r="F79" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" t="s">
+        <v>353</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" t="s">
+        <v>354</v>
+      </c>
+      <c r="E81" t="s">
+        <v>354</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>355</v>
+      </c>
+      <c r="C82" t="s">
+        <v>355</v>
+      </c>
+      <c r="E82" t="s">
+        <v>355</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>356</v>
+      </c>
+      <c r="C83" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" t="s">
+        <v>356</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>357</v>
+      </c>
+      <c r="C84" t="s">
+        <v>357</v>
+      </c>
+      <c r="E84" t="s">
+        <v>357</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>358</v>
+      </c>
+      <c r="C85" t="s">
+        <v>358</v>
+      </c>
+      <c r="E85" t="s">
+        <v>358</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>359</v>
+      </c>
+      <c r="C86" t="s">
+        <v>359</v>
+      </c>
+      <c r="E86" t="s">
+        <v>359</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>360</v>
+      </c>
+      <c r="C87" t="s">
+        <v>360</v>
+      </c>
+      <c r="E87" t="s">
+        <v>360</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="s">
+        <v>361</v>
+      </c>
+      <c r="E88" t="s">
+        <v>361</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" t="s">
+        <v>362</v>
+      </c>
+      <c r="E89" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>363</v>
+      </c>
+      <c r="C90" t="s">
+        <v>363</v>
+      </c>
+      <c r="E90" t="s">
+        <v>363</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>364</v>
+      </c>
+      <c r="C91" t="s">
+        <v>364</v>
+      </c>
+      <c r="E91" t="s">
+        <v>364</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>365</v>
+      </c>
+      <c r="C92" t="s">
+        <v>365</v>
+      </c>
+      <c r="E92" t="s">
+        <v>365</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>366</v>
+      </c>
+      <c r="C93" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" t="s">
+        <v>366</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>367</v>
+      </c>
+      <c r="C94" t="s">
+        <v>367</v>
+      </c>
+      <c r="E94" t="s">
+        <v>367</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>368</v>
+      </c>
+      <c r="C95" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" t="s">
+        <v>368</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96" t="s">
+        <v>369</v>
+      </c>
+      <c r="E96" t="s">
+        <v>369</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97" t="s">
+        <v>370</v>
+      </c>
+      <c r="E97" t="s">
+        <v>370</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>371</v>
+      </c>
+      <c r="C98" t="s">
+        <v>371</v>
+      </c>
+      <c r="E98" t="s">
+        <v>371</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>372</v>
+      </c>
+      <c r="C99" t="s">
+        <v>372</v>
+      </c>
+      <c r="E99" t="s">
+        <v>372</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C100" t="s">
+        <v>373</v>
+      </c>
+      <c r="E100" t="s">
+        <v>373</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" t="s">
+        <v>374</v>
+      </c>
+      <c r="E101" t="s">
+        <v>374</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>375</v>
+      </c>
+      <c r="C102" t="s">
+        <v>375</v>
+      </c>
+      <c r="E102" t="s">
+        <v>375</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>376</v>
+      </c>
+      <c r="C103" t="s">
+        <v>376</v>
+      </c>
+      <c r="E103" t="s">
+        <v>376</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" t="s">
+        <v>377</v>
+      </c>
+      <c r="E104" t="s">
+        <v>377</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>378</v>
+      </c>
+      <c r="C105" t="s">
+        <v>378</v>
+      </c>
+      <c r="E105" t="s">
+        <v>378</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" t="s">
+        <v>379</v>
+      </c>
+      <c r="E106" t="s">
+        <v>379</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>380</v>
+      </c>
+      <c r="C107" t="s">
+        <v>380</v>
+      </c>
+      <c r="E107" t="s">
+        <v>380</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" t="s">
+        <v>381</v>
+      </c>
+      <c r="E108" t="s">
+        <v>381</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>382</v>
+      </c>
+      <c r="C109" t="s">
+        <v>382</v>
+      </c>
+      <c r="E109" t="s">
+        <v>382</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" t="s">
+        <v>383</v>
+      </c>
+      <c r="E110" t="s">
+        <v>383</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>384</v>
+      </c>
+      <c r="C111" t="s">
+        <v>384</v>
+      </c>
+      <c r="E111" t="s">
+        <v>384</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>385</v>
+      </c>
+      <c r="C112" t="s">
+        <v>385</v>
+      </c>
+      <c r="E112" t="s">
+        <v>385</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" t="s">
+        <v>386</v>
+      </c>
+      <c r="E113" t="s">
+        <v>386</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>387</v>
+      </c>
+      <c r="C114" t="s">
+        <v>387</v>
+      </c>
+      <c r="E114" t="s">
+        <v>387</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>388</v>
+      </c>
+      <c r="C115" t="s">
+        <v>388</v>
+      </c>
+      <c r="E115" t="s">
+        <v>388</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>389</v>
+      </c>
+      <c r="C116" t="s">
+        <v>389</v>
+      </c>
+      <c r="E116" t="s">
+        <v>389</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" t="s">
+        <v>390</v>
+      </c>
+      <c r="E117" t="s">
+        <v>390</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>391</v>
+      </c>
+      <c r="C118" t="s">
+        <v>391</v>
+      </c>
+      <c r="E118" t="s">
+        <v>391</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>392</v>
+      </c>
+      <c r="C119" t="s">
+        <v>392</v>
+      </c>
+      <c r="E119" t="s">
+        <v>392</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>393</v>
+      </c>
+      <c r="C120" t="s">
+        <v>393</v>
+      </c>
+      <c r="E120" t="s">
+        <v>393</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121" t="s">
+        <v>394</v>
+      </c>
+      <c r="E121" t="s">
+        <v>394</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>395</v>
+      </c>
+      <c r="C122" t="s">
+        <v>395</v>
+      </c>
+      <c r="E122" t="s">
+        <v>395</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>396</v>
+      </c>
+      <c r="C123" t="s">
+        <v>396</v>
+      </c>
+      <c r="E123" t="s">
+        <v>396</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>397</v>
+      </c>
+      <c r="C124" t="s">
+        <v>397</v>
+      </c>
+      <c r="E124" t="s">
+        <v>397</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>398</v>
+      </c>
+      <c r="C125" t="s">
+        <v>398</v>
+      </c>
+      <c r="E125" t="s">
+        <v>398</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>399</v>
+      </c>
+      <c r="C126" t="s">
+        <v>399</v>
+      </c>
+      <c r="E126" t="s">
+        <v>399</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" t="s">
+        <v>400</v>
+      </c>
+      <c r="E127" t="s">
+        <v>400</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>401</v>
+      </c>
+      <c r="C128" t="s">
+        <v>401</v>
+      </c>
+      <c r="E128" t="s">
+        <v>401</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>402</v>
+      </c>
+      <c r="C129" t="s">
+        <v>402</v>
+      </c>
+      <c r="E129" t="s">
+        <v>402</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>403</v>
+      </c>
+      <c r="C130" t="s">
+        <v>403</v>
+      </c>
+      <c r="E130" t="s">
+        <v>403</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>404</v>
+      </c>
+      <c r="C131" t="s">
+        <v>404</v>
+      </c>
+      <c r="E131" t="s">
+        <v>404</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>542</v>
+      </c>
+      <c r="C132" t="s">
+        <v>542</v>
+      </c>
+      <c r="E132" t="s">
+        <v>542</v>
+      </c>
+      <c r="F132" s="15" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/67_Inst_Variable_SME_RETAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\AAAP\INTESA\Repository\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="550">
   <si>
     <t>Variable</t>
   </si>
@@ -1710,6 +1710,18 @@
   </si>
   <si>
     <t xml:space="preserve">Default Regolamentare + Sconfino (6 months) </t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_120</t>
+  </si>
+  <si>
+    <t>IND_120</t>
+  </si>
+  <si>
+    <t>Importo residuo debito rate impagate per prodotti su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 120 - Importo residuo debito rate impagate per prodotti su cc</t>
   </si>
 </sst>
 </file>
@@ -3062,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5178,19 +5190,19 @@
         <v>11</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" t="s">
-        <v>217</v>
+        <v>546</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>546</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>548</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>547</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
+        <v>549</v>
       </c>
       <c r="G49" s="11">
         <v>246</v>
@@ -5222,19 +5234,19 @@
         <v>11</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G50" s="11">
         <v>247</v>
@@ -5266,19 +5278,19 @@
         <v>11</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G51" s="11">
         <v>248</v>
@@ -5310,19 +5322,19 @@
         <v>11</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G52" s="11">
         <v>249</v>
@@ -5354,19 +5366,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G53" s="11">
         <v>250</v>
@@ -5398,19 +5410,19 @@
         <v>11</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G54" s="11">
         <v>251</v>
@@ -5442,19 +5454,19 @@
         <v>11</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G55" s="11">
         <v>252</v>
@@ -5486,19 +5498,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G56" s="11">
         <v>253</v>
@@ -5530,19 +5542,19 @@
         <v>11</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G57" s="11">
         <v>254</v>
@@ -5574,19 +5586,19 @@
         <v>11</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G58" s="11">
         <v>255</v>
@@ -5618,19 +5630,19 @@
         <v>11</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="D59" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="F59" t="s">
-        <v>327</v>
+        <v>236</v>
       </c>
       <c r="G59" s="11">
         <v>256</v>
@@ -5662,19 +5674,19 @@
         <v>11</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G60" s="11">
         <v>257</v>
@@ -5706,19 +5718,19 @@
         <v>11</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G61" s="11">
         <v>258</v>
@@ -5745,68 +5757,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>349</v>
+        <v>289</v>
+      </c>
+      <c r="C62" t="s">
+        <v>289</v>
+      </c>
+      <c r="D62" t="s">
+        <v>348</v>
       </c>
       <c r="E62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G62" s="11">
         <v>259</v>
       </c>
-      <c r="H62" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K62" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H62" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C63" t="s">
-        <v>291</v>
-      </c>
-      <c r="D63" t="s">
-        <v>312</v>
+        <v>290</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>349</v>
       </c>
       <c r="E63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F63" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G63" s="11">
         <v>260</v>
@@ -5838,42 +5850,42 @@
         <v>11</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G64" s="11">
         <v>261</v>
       </c>
-      <c r="H64" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K64" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L64" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N64" s="6" t="b">
+      <c r="H64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5882,19 +5894,19 @@
         <v>11</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G65" s="11">
         <v>262</v>
@@ -5926,19 +5938,19 @@
         <v>11</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C66" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G66" s="11">
         <v>263</v>
@@ -5970,19 +5982,19 @@
         <v>11</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G67" s="11">
         <v>264</v>
@@ -6014,42 +6026,42 @@
         <v>11</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E68" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G68" s="11">
         <v>265</v>
       </c>
-      <c r="H68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K68" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N68" s="12" t="b">
+      <c r="H68" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6058,42 +6070,42 @@
         <v>11</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G69" s="11">
         <v>266</v>
       </c>
-      <c r="H69" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K69" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L69" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N69" s="6" t="b">
+      <c r="H69" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6102,19 +6114,19 @@
         <v>11</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G70" s="11">
         <v>267</v>
@@ -6146,42 +6158,42 @@
         <v>11</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G71" s="11">
         <v>268</v>
       </c>
-      <c r="H71" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K71" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N71" s="12" t="b">
+      <c r="H71" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6190,42 +6202,42 @@
         <v>11</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G72" s="11">
         <v>269</v>
       </c>
-      <c r="H72" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" s="6" t="b">
+      <c r="H72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6234,42 +6246,42 @@
         <v>11</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G73" s="11">
         <v>270</v>
       </c>
-      <c r="H73" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N73" s="12" t="b">
+      <c r="H73" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6278,42 +6290,42 @@
         <v>11</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G74" s="11">
         <v>271</v>
       </c>
-      <c r="H74" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K74" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N74" s="6" t="b">
+      <c r="H74" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6322,19 +6334,19 @@
         <v>11</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G75" s="11">
         <v>272</v>
@@ -6366,19 +6378,19 @@
         <v>11</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G76" s="11">
         <v>273</v>
@@ -6410,19 +6422,19 @@
         <v>11</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E77" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G77" s="11">
         <v>274</v>
@@ -6454,42 +6466,42 @@
         <v>11</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D78" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="E78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F78" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G78" s="11">
         <v>275</v>
       </c>
-      <c r="H78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78" s="12" t="b">
+      <c r="H78" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6498,19 +6510,19 @@
         <v>11</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E79" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G79" s="11">
         <v>276</v>
@@ -6542,19 +6554,19 @@
         <v>11</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="D80" t="s">
-        <v>508</v>
+        <v>351</v>
       </c>
       <c r="E80" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="F80" t="s">
-        <v>456</v>
+        <v>347</v>
       </c>
       <c r="G80" s="11">
         <v>277</v>
@@ -6565,11 +6577,11 @@
       <c r="I80" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J80" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80" s="30" t="s">
-        <v>12</v>
+      <c r="J80" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K80" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="L80" s="15" t="b">
         <v>0</v>
@@ -6586,19 +6598,19 @@
         <v>11</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D81" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E81" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F81" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G81" s="11">
         <v>278</v>
@@ -6630,19 +6642,19 @@
         <v>11</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D82" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E82" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F82" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G82" s="11">
         <v>279</v>
@@ -6674,19 +6686,19 @@
         <v>11</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E83" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F83" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G83" s="11">
         <v>280</v>
@@ -6718,19 +6730,19 @@
         <v>11</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E84" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F84" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G84" s="11">
         <v>281</v>
@@ -6762,19 +6774,19 @@
         <v>11</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E85" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G85" s="11">
         <v>282</v>
@@ -6806,19 +6818,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E86" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G86" s="11">
         <v>283</v>
@@ -6850,19 +6862,19 @@
         <v>11</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E87" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G87" s="11">
         <v>284</v>
@@ -6894,19 +6906,19 @@
         <v>11</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D88" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E88" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G88" s="11">
         <v>285</v>
@@ -6938,19 +6950,19 @@
         <v>11</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D89" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E89" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G89" s="11">
         <v>286</v>
@@ -6982,19 +6994,19 @@
         <v>11</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E90" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G90" s="11">
         <v>287</v>
@@ -7026,19 +7038,19 @@
         <v>11</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D91" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E91" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F91" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G91" s="11">
         <v>288</v>
@@ -7070,19 +7082,19 @@
         <v>11</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E92" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F92" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G92" s="11">
         <v>289</v>
@@ -7114,19 +7126,19 @@
         <v>11</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D93" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F93" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G93" s="11">
         <v>290</v>
@@ -7158,19 +7170,19 @@
         <v>11</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E94" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F94" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G94" s="11">
         <v>291</v>
@@ -7202,19 +7214,19 @@
         <v>11</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D95" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E95" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F95" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G95" s="11">
         <v>292</v>
@@ -7246,19 +7258,19 @@
         <v>11</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F96" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G96" s="11">
         <v>293</v>
@@ -7290,19 +7302,19 @@
         <v>11</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F97" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G97" s="11">
         <v>294</v>
@@ -7334,19 +7346,19 @@
         <v>11</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D98" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E98" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F98" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G98" s="11">
         <v>295</v>
@@ -7378,19 +7390,19 @@
         <v>11</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D99" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E99" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G99" s="11">
         <v>296</v>
@@ -7422,19 +7434,19 @@
         <v>11</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D100" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F100" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G100" s="11">
         <v>297</v>
@@ -7466,19 +7478,19 @@
         <v>11</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D101" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F101" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G101" s="11">
         <v>298</v>
@@ -7510,19 +7522,19 @@
         <v>11</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C102" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D102" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F102" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G102" s="11">
         <v>299</v>
@@ -7554,19 +7566,19 @@
         <v>11</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D103" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F103" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G103" s="11">
         <v>300</v>
@@ -7598,19 +7610,19 @@
         <v>11</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D104" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F104" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G104" s="11">
         <v>301</v>
@@ -7642,19 +7654,19 @@
         <v>11</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F105" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G105" s="11">
         <v>302</v>
@@ -7686,19 +7698,19 @@
         <v>11</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D106" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E106" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F106" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G106" s="11">
         <v>303</v>
@@ -7730,19 +7742,19 @@
         <v>11</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D107" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E107" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F107" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G107" s="11">
         <v>304</v>
@@ -7774,19 +7786,19 @@
         <v>11</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D108" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E108" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G108" s="11">
         <v>305</v>
@@ -7818,19 +7830,19 @@
         <v>11</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D109" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E109" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F109" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G109" s="11">
         <v>306</v>
@@ -7857,24 +7869,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C110" t="s">
-        <v>382</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>540</v>
+        <v>381</v>
+      </c>
+      <c r="D110" t="s">
+        <v>539</v>
       </c>
       <c r="E110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F110" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G110" s="11">
         <v>307</v>
@@ -7885,11 +7897,11 @@
       <c r="I110" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J110" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K110" s="16" t="b">
-        <v>1</v>
+      <c r="J110" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K110" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="L110" s="15" t="b">
         <v>0</v>
@@ -7901,24 +7913,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C111" t="s">
-        <v>383</v>
-      </c>
-      <c r="D111" t="s">
-        <v>313</v>
+        <v>382</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="E111" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G111" s="11">
         <v>308</v>
@@ -7929,11 +7941,11 @@
       <c r="I111" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J111" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K111" s="30" t="s">
-        <v>12</v>
+      <c r="J111" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K111" s="16" t="b">
+        <v>1</v>
       </c>
       <c r="L111" s="15" t="b">
         <v>0</v>
@@ -7950,19 +7962,19 @@
         <v>11</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D112" t="s">
-        <v>537</v>
+        <v>313</v>
       </c>
       <c r="E112" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F112" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G112" s="11">
         <v>309</v>
@@ -7994,19 +8006,19 @@
         <v>11</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C113" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D113" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F113" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G113" s="11">
         <v>310</v>
@@ -8038,19 +8050,19 @@
         <v>11</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D114" t="s">
-        <v>314</v>
+        <v>538</v>
       </c>
       <c r="E114" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F114" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G114" s="11">
         <v>311</v>
@@ -8082,19 +8094,19 @@
         <v>11</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C115" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D115" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G115" s="11">
         <v>312</v>
@@ -8126,19 +8138,19 @@
         <v>11</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D116" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F116" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G116" s="11">
         <v>313</v>
@@ -8170,19 +8182,19 @@
         <v>11</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F117" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G117" s="11">
         <v>314</v>
@@ -8214,19 +8226,19 @@
         <v>11</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D118" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E118" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F118" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G118" s="11">
         <v>315</v>
@@ -8258,19 +8270,19 @@
         <v>11</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D119" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F119" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G119" s="11">
         <v>316</v>
@@ -8302,19 +8314,19 @@
         <v>11</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D120" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E120" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F120" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G120" s="11">
         <v>317</v>
@@ -8346,19 +8358,19 @@
         <v>11</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F121" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G121" s="11">
         <v>318</v>
@@ -8390,19 +8402,19 @@
         <v>11</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D122" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="E122" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F122" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G122" s="11">
         <v>319</v>
@@ -8434,19 +8446,19 @@
         <v>11</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C123" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E123" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F123" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G123" s="11">
         <v>320</v>
@@ -8478,19 +8490,19 @@
         <v>11</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E124" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G124" s="11">
         <v>321</v>
@@ -8522,19 +8534,19 @@
         <v>11</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E125" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F125" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G125" s="11">
         <v>322</v>
@@ -8566,19 +8578,19 @@
         <v>11</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E126" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F126" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G126" s="11">
         <v>323</v>
@@ -8610,19 +8622,19 @@
         <v>11</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E127" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F127" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G127" s="11">
         <v>324</v>
@@ -8654,19 +8666,19 @@
         <v>11</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E128" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F128" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G128" s="11">
         <v>325</v>
@@ -8698,19 +8710,19 @@
         <v>11</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C129" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E129" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F129" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G129" s="11">
         <v>326</v>
@@ -8742,19 +8754,19 @@
         <v>11</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E130" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F130" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G130" s="11">
         <v>327</v>
@@ -8786,19 +8798,19 @@
         <v>11</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D131" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E131" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F131" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G131" s="11">
         <v>328</v>
@@ -8830,19 +8842,19 @@
         <v>11</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>541</v>
+        <v>403</v>
+      </c>
+      <c r="C132" t="s">
+        <v>403</v>
       </c>
       <c r="D132" t="s">
-        <v>544</v>
+        <v>264</v>
       </c>
       <c r="E132" t="s">
-        <v>543</v>
+        <v>455</v>
       </c>
       <c r="F132" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="G132" s="11">
         <v>329</v>
@@ -8853,19 +8865,63 @@
       <c r="I132" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J132" s="16" t="s">
+      <c r="J132" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K132" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L132" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D133" t="s">
+        <v>544</v>
+      </c>
+      <c r="E133" t="s">
+        <v>543</v>
+      </c>
+      <c r="F133" t="s">
+        <v>542</v>
+      </c>
+      <c r="G133" s="11">
+        <v>330</v>
+      </c>
+      <c r="H133" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K132" s="16" t="b">
+      <c r="K133" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="L132" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M132" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N132" s="12" t="b">
+      <c r="L133" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8878,11 +8934,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131:A132"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9713,13 +9769,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>546</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>546</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>546</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>22</v>
@@ -9730,13 +9786,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>22</v>
@@ -9747,13 +9803,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>22</v>
@@ -9764,13 +9820,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>22</v>
@@ -9781,13 +9837,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>22</v>
@@ -9798,13 +9854,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>22</v>
@@ -9815,13 +9871,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>22</v>
@@ -9832,13 +9888,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>22</v>
@@ -9849,13 +9905,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>22</v>
@@ -9866,13 +9922,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>22</v>
@@ -9883,13 +9939,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="E59" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>22</v>
@@ -9900,13 +9956,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>22</v>
@@ -9917,13 +9973,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E61" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>22</v>
@@ -9934,16 +9990,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -9951,13 +10007,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>23</v>
@@ -9968,16 +10024,16 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9985,13 +10041,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F65" s="23" t="s">
         <v>22</v>
@@ -10002,13 +10058,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C66" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F66" s="23" t="s">
         <v>22</v>
@@ -10019,13 +10075,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>22</v>
@@ -10036,16 +10092,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10053,16 +10109,16 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -10070,13 +10126,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>22</v>
@@ -10087,16 +10143,16 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -10104,16 +10160,16 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -10121,16 +10177,16 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -10138,16 +10194,16 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10155,13 +10211,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>22</v>
@@ -10172,13 +10228,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>22</v>
@@ -10189,13 +10245,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F77" s="23" t="s">
         <v>22</v>
@@ -10206,16 +10262,16 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -10223,13 +10279,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F79" s="23" t="s">
         <v>23</v>
@@ -10240,16 +10296,16 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="E80" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -10257,13 +10313,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F81" s="23" t="s">
         <v>22</v>
@@ -10274,13 +10330,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>22</v>
@@ -10291,13 +10347,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F83" s="23" t="s">
         <v>22</v>
@@ -10308,13 +10364,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F84" s="23" t="s">
         <v>22</v>
@@ -10325,13 +10381,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>22</v>
@@ -10342,13 +10398,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>22</v>
@@ -10359,13 +10415,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F87" s="23" t="s">
         <v>22</v>
@@ -10376,13 +10432,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>22</v>
@@ -10393,13 +10449,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E89" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>22</v>
@@ -10410,13 +10466,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F90" s="23" t="s">
         <v>22</v>
@@ -10427,13 +10483,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E91" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>22</v>
@@ -10444,13 +10500,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>22</v>
@@ -10461,13 +10517,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F93" s="23" t="s">
         <v>22</v>
@@ -10478,13 +10534,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>22</v>
@@ -10495,13 +10551,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>22</v>
@@ -10512,13 +10568,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>22</v>
@@ -10529,13 +10585,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>22</v>
@@ -10546,13 +10602,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F98" s="23" t="s">
         <v>22</v>
@@ -10563,13 +10619,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>22</v>
@@ -10580,13 +10636,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F100" s="23" t="s">
         <v>22</v>
@@ -10597,13 +10653,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>22</v>
@@ -10614,13 +10670,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C102" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E102" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F102" s="23" t="s">
         <v>22</v>
@@ -10631,13 +10687,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F103" s="23" t="s">
         <v>22</v>
@@ -10648,13 +10704,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F104" s="23" t="s">
         <v>22</v>
@@ -10665,13 +10721,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F105" s="23" t="s">
         <v>22</v>
@@ -10682,13 +10738,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F106" s="23" t="s">
         <v>22</v>
@@ -10699,13 +10755,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F107" s="23" t="s">
         <v>22</v>
@@ -10716,13 +10772,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F108" s="23" t="s">
         <v>22</v>
@@ -10733,13 +10789,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F109" s="23" t="s">
         <v>22</v>
@@ -10750,16 +10806,16 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E110" t="s">
-        <v>382</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>23</v>
+        <v>381</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -10767,16 +10823,16 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -10784,13 +10840,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>22</v>
@@ -10801,13 +10857,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C113" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E113" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>22</v>
@@ -10818,13 +10874,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F114" s="14" t="s">
         <v>22</v>
@@ -10835,13 +10891,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C115" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E115" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F115" s="14" t="s">
         <v>22</v>
@@ -10852,13 +10908,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>22</v>
@@ -10869,13 +10925,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>22</v>
@@ -10886,13 +10942,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>22</v>
@@ -10903,13 +10959,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F119" s="14" t="s">
         <v>22</v>
@@ -10920,13 +10976,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>22</v>
@@ -10937,13 +10993,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>22</v>
@@ -10954,13 +11010,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E122" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F122" s="14" t="s">
         <v>22</v>
@@ -10971,13 +11027,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C123" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E123" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>22</v>
@@ -10988,13 +11044,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F124" s="14" t="s">
         <v>22</v>
@@ -11005,13 +11061,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F125" s="14" t="s">
         <v>22</v>
@@ -11022,13 +11078,13 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F126" s="14" t="s">
         <v>22</v>
@@ -11039,13 +11095,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F127" s="14" t="s">
         <v>22</v>
@@ -11056,13 +11112,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F128" s="14" t="s">
         <v>22</v>
@@ -11073,13 +11129,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C129" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E129" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F129" s="14" t="s">
         <v>22</v>
@@ -11090,13 +11146,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F130" s="14" t="s">
         <v>22</v>
@@ -11107,13 +11163,13 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E131" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F131" s="14" t="s">
         <v>22</v>
@@ -11124,15 +11180,32 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
+        <v>403</v>
+      </c>
+      <c r="C132" t="s">
+        <v>403</v>
+      </c>
+      <c r="E132" t="s">
+        <v>403</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
         <v>541</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>541</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>541</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F133" s="14" t="s">
         <v>23</v>
       </c>
     </row>
